--- a/CUMCM2022支撑材料/excel/extract/data_imput/data_2.xlsx
+++ b/CUMCM2022支撑材料/excel/extract/data_imput/data_2.xlsx
@@ -513,7 +513,7 @@
         <v>69.33</v>
       </c>
       <c r="C2" t="n">
-        <v>3.979500000000003</v>
+        <v>3.583100000000004</v>
       </c>
       <c r="D2" t="n">
         <v>9.99</v>
@@ -534,19 +534,19 @@
         <v>3.87</v>
       </c>
       <c r="J2" t="n">
-        <v>1.446799999999999</v>
+        <v>1.688299999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>5.692700000000007</v>
+        <v>5.043600000000006</v>
       </c>
       <c r="L2" t="n">
         <v>1.17</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1243</v>
+        <v>0.1292</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6723999999999997</v>
+        <v>0.7802999999999999</v>
       </c>
       <c r="O2" t="n">
         <v>0.39</v>
@@ -560,7 +560,7 @@
         <v>36.28</v>
       </c>
       <c r="C3" t="n">
-        <v>2.987500000000002</v>
+        <v>3.031500000000002</v>
       </c>
       <c r="D3" t="n">
         <v>1.05</v>
@@ -584,7 +584,7 @@
         <v>47.43</v>
       </c>
       <c r="K3" t="n">
-        <v>8.234800000000005</v>
+        <v>8.142800000000003</v>
       </c>
       <c r="L3" t="n">
         <v>3.57</v>
@@ -593,10 +593,10 @@
         <v>0.19</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5187999999999992</v>
+        <v>0.5609999999999991</v>
       </c>
       <c r="O3" t="n">
-        <v>4.405699999999999</v>
+        <v>4.057299999999999</v>
       </c>
     </row>
     <row r="4">
@@ -607,7 +607,7 @@
         <v>87.05</v>
       </c>
       <c r="C4" t="n">
-        <v>2.381100000000001</v>
+        <v>2.2341</v>
       </c>
       <c r="D4" t="n">
         <v>5.19</v>
@@ -616,13 +616,13 @@
         <v>2.01</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9728</v>
+        <v>0.8919999999999999</v>
       </c>
       <c r="G4" t="n">
         <v>4.06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8866000000000004</v>
+        <v>0.6293000000000003</v>
       </c>
       <c r="I4" t="n">
         <v>0.78</v>
@@ -631,19 +631,19 @@
         <v>0.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2.5282</v>
+        <v>2.6475</v>
       </c>
       <c r="L4" t="n">
         <v>0.66</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1124</v>
+        <v>0.1062</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9027000000000004</v>
+        <v>0.7429999999999997</v>
       </c>
       <c r="O4" t="n">
-        <v>1.006899999999999</v>
+        <v>2.489100000000001</v>
       </c>
     </row>
     <row r="5">
@@ -654,7 +654,7 @@
         <v>61.71</v>
       </c>
       <c r="C5" t="n">
-        <v>4.002700000000003</v>
+        <v>3.632800000000004</v>
       </c>
       <c r="D5" t="n">
         <v>12.37</v>
@@ -687,10 +687,10 @@
         <v>0.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6747999999999998</v>
+        <v>0.7494</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7482</v>
+        <v>0.6034999999999997</v>
       </c>
     </row>
     <row r="6">
@@ -701,7 +701,7 @@
         <v>65.88</v>
       </c>
       <c r="C6" t="n">
-        <v>3.636100000000003</v>
+        <v>3.290300000000002</v>
       </c>
       <c r="D6" t="n">
         <v>9.67</v>
@@ -722,19 +722,19 @@
         <v>2.18</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6111999999999995</v>
+        <v>0.7181999999999994</v>
       </c>
       <c r="K6" t="n">
-        <v>1.096399999999999</v>
+        <v>1.3837</v>
       </c>
       <c r="L6" t="n">
         <v>0.79</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07119999999999994</v>
+        <v>0.07399999999999994</v>
       </c>
       <c r="N6" t="n">
-        <v>1.121300000000001</v>
+        <v>1.2711</v>
       </c>
       <c r="O6" t="n">
         <v>0.36</v>
@@ -748,7 +748,7 @@
         <v>61.58</v>
       </c>
       <c r="C7" t="n">
-        <v>3.574600000000004</v>
+        <v>3.327000000000004</v>
       </c>
       <c r="D7" t="n">
         <v>10.95</v>
@@ -769,10 +769,10 @@
         <v>3.27</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8972999999999991</v>
+        <v>0.8941999999999994</v>
       </c>
       <c r="K7" t="n">
-        <v>2.696000000000002</v>
+        <v>2.721000000000002</v>
       </c>
       <c r="L7" t="n">
         <v>0.9399999999999999</v>
@@ -781,7 +781,7 @@
         <v>0.06</v>
       </c>
       <c r="N7" t="n">
-        <v>1.131800000000001</v>
+        <v>1.2669</v>
       </c>
       <c r="O7" t="n">
         <v>0.47</v>
@@ -795,13 +795,13 @@
         <v>67.65000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>3.657100000000004</v>
+        <v>3.456400000000004</v>
       </c>
       <c r="D8" t="n">
         <v>7.37</v>
       </c>
       <c r="E8" t="n">
-        <v>5.956900000000003</v>
+        <v>5.779200000000003</v>
       </c>
       <c r="F8" t="n">
         <v>1.98</v>
@@ -828,10 +828,10 @@
         <v>0.11</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9531000000000002</v>
+        <v>1.129</v>
       </c>
       <c r="O8" t="n">
-        <v>1.201</v>
+        <v>1.0379</v>
       </c>
     </row>
     <row r="9">
@@ -842,7 +842,7 @@
         <v>59.81</v>
       </c>
       <c r="C9" t="n">
-        <v>3.655100000000004</v>
+        <v>3.392600000000004</v>
       </c>
       <c r="D9" t="n">
         <v>7.68</v>
@@ -875,10 +875,10 @@
         <v>0.12</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9906000000000005</v>
+        <v>1.1771</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3029</v>
+        <v>1.257199999999999</v>
       </c>
     </row>
     <row r="10">
@@ -889,16 +889,16 @@
         <v>92.63</v>
       </c>
       <c r="C10" t="n">
-        <v>3.564900000000002</v>
+        <v>3.660800000000004</v>
       </c>
       <c r="D10" t="n">
-        <v>1.250500000000001</v>
+        <v>1.008000000000001</v>
       </c>
       <c r="E10" t="n">
         <v>1.07</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6621999999999999</v>
+        <v>0.6302000000000001</v>
       </c>
       <c r="G10" t="n">
         <v>1.98</v>
@@ -910,22 +910,22 @@
         <v>3.24</v>
       </c>
       <c r="J10" t="n">
-        <v>9.650200000000005</v>
+        <v>7.446300000000003</v>
       </c>
       <c r="K10" t="n">
-        <v>7.3207</v>
+        <v>7.359999999999998</v>
       </c>
       <c r="L10" t="n">
         <v>0.61</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1532</v>
+        <v>0.1758</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9999000000000001</v>
+        <v>0.7939999999999996</v>
       </c>
       <c r="O10" t="n">
-        <v>2.770700000000001</v>
+        <v>4.856199999999997</v>
       </c>
     </row>
     <row r="11">
@@ -936,22 +936,22 @@
         <v>20.14</v>
       </c>
       <c r="C11" t="n">
-        <v>5.445200000000003</v>
+        <v>5.491300000000003</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3487000000000001</v>
+        <v>0.3061000000000001</v>
       </c>
       <c r="E11" t="n">
         <v>1.48</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7589999999999999</v>
+        <v>0.7935</v>
       </c>
       <c r="G11" t="n">
         <v>1.34</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6453999999999996</v>
+        <v>0.8603999999999998</v>
       </c>
       <c r="I11" t="n">
         <v>10.41</v>
@@ -969,7 +969,7 @@
         <v>0.37</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6754999999999992</v>
+        <v>0.5804999999999992</v>
       </c>
       <c r="O11" t="n">
         <v>2.58</v>
@@ -983,22 +983,22 @@
         <v>4.61</v>
       </c>
       <c r="C12" t="n">
-        <v>5.426100000000003</v>
+        <v>5.408100000000006</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3829999999999998</v>
+        <v>0.3557999999999998</v>
       </c>
       <c r="E12" t="n">
         <v>3.19</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7826999999999998</v>
+        <v>0.7818000000000008</v>
       </c>
       <c r="G12" t="n">
         <v>1.11</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6982999999999997</v>
+        <v>0.8180999999999995</v>
       </c>
       <c r="I12" t="n">
         <v>3.14</v>
@@ -1016,7 +1016,7 @@
         <v>0.53</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6594999999999993</v>
+        <v>0.5960999999999994</v>
       </c>
       <c r="O12" t="n">
         <v>15.03</v>
@@ -1030,7 +1030,7 @@
         <v>95.02</v>
       </c>
       <c r="C13" t="n">
-        <v>2.4294</v>
+        <v>2.5639</v>
       </c>
       <c r="D13" t="n">
         <v>0.59</v>
@@ -1039,7 +1039,7 @@
         <v>0.62</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6503999999999998</v>
+        <v>0.6385999999999998</v>
       </c>
       <c r="G13" t="n">
         <v>1.32</v>
@@ -1051,22 +1051,22 @@
         <v>1.55</v>
       </c>
       <c r="J13" t="n">
-        <v>9.803200000000002</v>
+        <v>7.682200000000003</v>
       </c>
       <c r="K13" t="n">
-        <v>7.567900000000002</v>
+        <v>8.107799999999996</v>
       </c>
       <c r="L13" t="n">
         <v>0.35</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1464</v>
+        <v>0.1945</v>
       </c>
       <c r="N13" t="n">
-        <v>1.0222</v>
+        <v>0.8398999999999998</v>
       </c>
       <c r="O13" t="n">
-        <v>2.770400000000001</v>
+        <v>5.101499999999997</v>
       </c>
     </row>
     <row r="14">
@@ -1077,7 +1077,7 @@
         <v>96.77</v>
       </c>
       <c r="C14" t="n">
-        <v>2.491899999999999</v>
+        <v>2.542099999999999</v>
       </c>
       <c r="D14" t="n">
         <v>0.92</v>
@@ -1086,7 +1086,7 @@
         <v>0.21</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6876000000000001</v>
+        <v>0.6514999999999997</v>
       </c>
       <c r="G14" t="n">
         <v>0.8100000000000001</v>
@@ -1098,22 +1098,22 @@
         <v>0.84</v>
       </c>
       <c r="J14" t="n">
-        <v>10.8053</v>
+        <v>9.343300000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>7.911900000000002</v>
+        <v>8.894699999999997</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3331000000000005</v>
+        <v>0.3429000000000004</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1581</v>
+        <v>0.2582</v>
       </c>
       <c r="N14" t="n">
-        <v>1.0543</v>
+        <v>0.8515999999999998</v>
       </c>
       <c r="O14" t="n">
-        <v>3.017800000000002</v>
+        <v>5.405299999999998</v>
       </c>
     </row>
     <row r="15">
@@ -1124,7 +1124,7 @@
         <v>33.59</v>
       </c>
       <c r="C15" t="n">
-        <v>5.487000000000003</v>
+        <v>5.274600000000004</v>
       </c>
       <c r="D15" t="n">
         <v>0.21</v>
@@ -1139,7 +1139,7 @@
         <v>2.69</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9065000000000001</v>
+        <v>0.9882</v>
       </c>
       <c r="I15" t="n">
         <v>4.93</v>
@@ -1157,10 +1157,10 @@
         <v>0.37</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6119999999999994</v>
+        <v>0.5027999999999995</v>
       </c>
       <c r="O15" t="n">
-        <v>6.329000000000002</v>
+        <v>6.945</v>
       </c>
     </row>
     <row r="16">
@@ -1171,7 +1171,7 @@
         <v>94.29000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>2.382699999999999</v>
+        <v>2.2743</v>
       </c>
       <c r="D16" t="n">
         <v>1.01</v>
@@ -1180,7 +1180,7 @@
         <v>0.72</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6623</v>
+        <v>0.6618000000000001</v>
       </c>
       <c r="G16" t="n">
         <v>1.46</v>
@@ -1192,22 +1192,22 @@
         <v>1.65</v>
       </c>
       <c r="J16" t="n">
-        <v>10.0832</v>
+        <v>7.611800000000003</v>
       </c>
       <c r="K16" t="n">
-        <v>6.572200000000001</v>
+        <v>6.877699999999997</v>
       </c>
       <c r="L16" t="n">
         <v>0.15</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2315</v>
+        <v>0.2423000000000001</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9860000000000001</v>
+        <v>0.8220999999999996</v>
       </c>
       <c r="O16" t="n">
-        <v>2.906500000000002</v>
+        <v>5.145299999999996</v>
       </c>
     </row>
     <row r="17">
@@ -1227,7 +1227,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>1.2492</v>
+        <v>1.1753</v>
       </c>
       <c r="G17" t="n">
         <v>6.16</v>
@@ -1239,22 +1239,22 @@
         <v>4.73</v>
       </c>
       <c r="J17" t="n">
-        <v>2.234099999999999</v>
+        <v>2.4677</v>
       </c>
       <c r="K17" t="n">
-        <v>8.298500000000008</v>
+        <v>7.784400000000005</v>
       </c>
       <c r="L17" t="n">
         <v>1.27</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1274</v>
+        <v>0.1555</v>
       </c>
       <c r="N17" t="n">
-        <v>0.6587999999999997</v>
+        <v>0.7685000000000001</v>
       </c>
       <c r="O17" t="n">
-        <v>0.8947999999999996</v>
+        <v>0.8121999999999994</v>
       </c>
     </row>
     <row r="18">
@@ -1289,19 +1289,19 @@
         <v>1.62</v>
       </c>
       <c r="K18" t="n">
-        <v>2.208300000000001</v>
+        <v>1.6548</v>
       </c>
       <c r="L18" t="n">
         <v>0.16</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1413999999999999</v>
+        <v>0.1372999999999998</v>
       </c>
       <c r="N18" t="n">
-        <v>0.6408999999999998</v>
+        <v>0.5438</v>
       </c>
       <c r="O18" t="n">
-        <v>2.147000000000001</v>
+        <v>4.462599999999999</v>
       </c>
     </row>
     <row r="19">
@@ -1318,7 +1318,7 @@
         <v>7.44</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6333</v>
+        <v>1.4274</v>
       </c>
       <c r="F19" t="n">
         <v>1.02</v>
@@ -1342,13 +1342,13 @@
         <v>0.26</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1352999999999999</v>
+        <v>0.1325999999999998</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8565999999999999</v>
+        <v>0.7844</v>
       </c>
       <c r="O19" t="n">
-        <v>1.201599999999999</v>
+        <v>1.264799999999999</v>
       </c>
     </row>
     <row r="20">
@@ -1386,16 +1386,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6429999999999992</v>
+        <v>0.6385999999999996</v>
       </c>
       <c r="M20" t="n">
         <v>0.04</v>
       </c>
       <c r="N20" t="n">
-        <v>0.7478999999999999</v>
+        <v>0.6421999999999995</v>
       </c>
       <c r="O20" t="n">
-        <v>2.145200000000001</v>
+        <v>4.4246</v>
       </c>
     </row>
     <row r="21">
@@ -1412,13 +1412,13 @@
         <v>5.71</v>
       </c>
       <c r="E21" t="n">
-        <v>5.977700000000001</v>
+        <v>5.939600000000006</v>
       </c>
       <c r="F21" t="n">
         <v>0.85</v>
       </c>
       <c r="G21" t="n">
-        <v>9.889700000000019</v>
+        <v>9.906000000000017</v>
       </c>
       <c r="H21" t="n">
         <v>1.04</v>
@@ -1436,13 +1436,13 @@
         <v>0.18</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1096999999999999</v>
+        <v>0.1146999999999999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.0247</v>
+        <v>0.8571999999999995</v>
       </c>
     </row>
     <row r="22">
@@ -1453,13 +1453,13 @@
         <v>79.45999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>2.641000000000001</v>
+        <v>2.3764</v>
       </c>
       <c r="D22" t="n">
         <v>9.42</v>
       </c>
       <c r="E22" t="n">
-        <v>1.4253</v>
+        <v>1.3223</v>
       </c>
       <c r="F22" t="n">
         <v>1.53</v>
@@ -1468,16 +1468,16 @@
         <v>3.05</v>
       </c>
       <c r="H22" t="n">
-        <v>2.2539</v>
+        <v>1.995199999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9498999999999994</v>
+        <v>0.8677999999999993</v>
       </c>
       <c r="J22" t="n">
-        <v>11.588</v>
+        <v>11.6157</v>
       </c>
       <c r="K22" t="n">
-        <v>3.774200000000001</v>
+        <v>4.252500000000003</v>
       </c>
       <c r="L22" t="n">
         <v>1.36</v>
@@ -1489,7 +1489,7 @@
         <v>2.36</v>
       </c>
       <c r="O22" t="n">
-        <v>1.239799999999999</v>
+        <v>1.347999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1500,10 +1500,10 @@
         <v>29.64</v>
       </c>
       <c r="C23" t="n">
-        <v>3.643800000000004</v>
+        <v>3.833700000000003</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4236</v>
+        <v>0.4014000000000004</v>
       </c>
       <c r="E23" t="n">
         <v>2.93</v>
@@ -1533,10 +1533,10 @@
         <v>0.19</v>
       </c>
       <c r="N23" t="n">
-        <v>0.4803999999999991</v>
+        <v>0.5181999999999993</v>
       </c>
       <c r="O23" t="n">
-        <v>8.339000000000004</v>
+        <v>8.495800000000001</v>
       </c>
     </row>
     <row r="24">
@@ -1547,16 +1547,16 @@
         <v>37.36</v>
       </c>
       <c r="C24" t="n">
-        <v>5.392300000000005</v>
+        <v>5.192300000000005</v>
       </c>
       <c r="D24" t="n">
         <v>0.71</v>
       </c>
       <c r="E24" t="n">
-        <v>4.840400000000002</v>
+        <v>5.1165</v>
       </c>
       <c r="F24" t="n">
-        <v>1.0735</v>
+        <v>1.1139</v>
       </c>
       <c r="G24" t="n">
         <v>5.45</v>
@@ -1577,13 +1577,13 @@
         <v>5.75</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2806000000000002</v>
+        <v>0.2969000000000001</v>
       </c>
       <c r="N24" t="n">
-        <v>0.5800999999999994</v>
+        <v>0.4533999999999995</v>
       </c>
       <c r="O24" t="n">
-        <v>4.806799999999996</v>
+        <v>4.164599999999998</v>
       </c>
     </row>
     <row r="25">
@@ -1594,10 +1594,10 @@
         <v>76.68000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>3.802500000000003</v>
+        <v>3.648600000000005</v>
       </c>
       <c r="D25" t="n">
-        <v>8.9854</v>
+        <v>8.937600000000003</v>
       </c>
       <c r="E25" t="n">
         <v>4.71</v>
@@ -1624,13 +1624,13 @@
         <v>1.1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1013</v>
+        <v>0.09970000000000001</v>
       </c>
       <c r="N25" t="n">
-        <v>0.8909000000000001</v>
+        <v>0.9033999999999999</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5461999999999999</v>
+        <v>0.5162999999999998</v>
       </c>
     </row>
     <row r="26">
@@ -1641,7 +1641,7 @@
         <v>92.34999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>2.581899999999999</v>
+        <v>2.6748</v>
       </c>
       <c r="D26" t="n">
         <v>0.74</v>
@@ -1662,22 +1662,22 @@
         <v>0.55</v>
       </c>
       <c r="J26" t="n">
-        <v>7.999200000000002</v>
+        <v>9.224399999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>5.754200000000001</v>
+        <v>6.083700000000001</v>
       </c>
       <c r="L26" t="n">
         <v>0.21</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1757000000000001</v>
+        <v>0.1696</v>
       </c>
       <c r="N26" t="n">
-        <v>0.8641000000000002</v>
+        <v>0.7006999999999995</v>
       </c>
       <c r="O26" t="n">
-        <v>2.3675</v>
+        <v>4.893399999999996</v>
       </c>
     </row>
     <row r="27">
@@ -1691,7 +1691,7 @@
         <v>7.92</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1963000000000001</v>
+        <v>0.1858</v>
       </c>
       <c r="E27" t="n">
         <v>0.5</v>
@@ -1703,7 +1703,7 @@
         <v>1.42</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4519</v>
+        <v>0.5932999999999997</v>
       </c>
       <c r="I27" t="n">
         <v>2.99</v>
@@ -1715,16 +1715,16 @@
         <v>11.86</v>
       </c>
       <c r="L27" t="n">
-        <v>0.5250000000000005</v>
+        <v>0.5553000000000002</v>
       </c>
       <c r="M27" t="n">
         <v>0.33</v>
       </c>
       <c r="N27" t="n">
-        <v>0.6214999999999995</v>
+        <v>0.5288999999999995</v>
       </c>
       <c r="O27" t="n">
-        <v>3.6205</v>
+        <v>5.8563</v>
       </c>
     </row>
     <row r="28">
@@ -1735,22 +1735,22 @@
         <v>31.94</v>
       </c>
       <c r="C28" t="n">
-        <v>5.744899999999998</v>
+        <v>5.663100000000003</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2278000000000001</v>
+        <v>0.2041000000000001</v>
       </c>
       <c r="E28" t="n">
         <v>0.47</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7233999999999999</v>
+        <v>0.7835000000000001</v>
       </c>
       <c r="G28" t="n">
         <v>1.59</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5770999999999996</v>
+        <v>0.7031999999999995</v>
       </c>
       <c r="I28" t="n">
         <v>8.460000000000001</v>
@@ -1768,10 +1768,10 @@
         <v>0.91</v>
       </c>
       <c r="N28" t="n">
-        <v>0.6776999999999995</v>
+        <v>0.5899999999999994</v>
       </c>
       <c r="O28" t="n">
-        <v>5.706899999999998</v>
+        <v>8.284300000000004</v>
       </c>
     </row>
     <row r="29">
@@ -1785,13 +1785,13 @@
         <v>2.31</v>
       </c>
       <c r="D29" t="n">
-        <v>0.285</v>
+        <v>0.2441</v>
       </c>
       <c r="E29" t="n">
         <v>0.63</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8443000000000005</v>
+        <v>0.8008000000000005</v>
       </c>
       <c r="G29" t="n">
         <v>1.9</v>
@@ -1815,10 +1815,10 @@
         <v>0.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.6475999999999993</v>
+        <v>0.5871999999999994</v>
       </c>
       <c r="O29" t="n">
-        <v>4.5386</v>
+        <v>4.585800000000002</v>
       </c>
     </row>
     <row r="30">
@@ -1829,22 +1829,22 @@
         <v>19.79</v>
       </c>
       <c r="C30" t="n">
-        <v>5.446800000000003</v>
+        <v>5.422700000000003</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3481000000000001</v>
+        <v>0.3068000000000001</v>
       </c>
       <c r="E30" t="n">
         <v>1.44</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7974999999999999</v>
+        <v>0.7883</v>
       </c>
       <c r="G30" t="n">
         <v>0.7</v>
       </c>
       <c r="H30" t="n">
-        <v>0.6332999999999998</v>
+        <v>0.8665999999999997</v>
       </c>
       <c r="I30" t="n">
         <v>10.57</v>
@@ -1862,7 +1862,7 @@
         <v>0.45</v>
       </c>
       <c r="N30" t="n">
-        <v>0.6745999999999994</v>
+        <v>0.6607999999999996</v>
       </c>
       <c r="O30" t="n">
         <v>1.96</v>
@@ -1876,7 +1876,7 @@
         <v>3.72</v>
       </c>
       <c r="C31" t="n">
-        <v>5.399300000000003</v>
+        <v>5.379900000000005</v>
       </c>
       <c r="D31" t="n">
         <v>0.4</v>
@@ -1885,13 +1885,13 @@
         <v>3.01</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7702999999999999</v>
+        <v>0.7829</v>
       </c>
       <c r="G31" t="n">
         <v>1.18</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6968999999999995</v>
+        <v>0.7999999999999994</v>
       </c>
       <c r="I31" t="n">
         <v>3.6</v>
@@ -1909,7 +1909,7 @@
         <v>0.62</v>
       </c>
       <c r="N31" t="n">
-        <v>0.6594999999999993</v>
+        <v>0.5936999999999993</v>
       </c>
       <c r="O31" t="n">
         <v>15.95</v>
@@ -1923,10 +1923,10 @@
         <v>92.72</v>
       </c>
       <c r="C32" t="n">
-        <v>2.223399999999999</v>
+        <v>2.372800000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>3.454899999999999</v>
+        <v>4.273099999999999</v>
       </c>
       <c r="E32" t="n">
         <v>0.9399999999999999</v>
@@ -1944,22 +1944,22 @@
         <v>1.54</v>
       </c>
       <c r="J32" t="n">
-        <v>9.609900000000003</v>
+        <v>7.649500000000004</v>
       </c>
       <c r="K32" t="n">
-        <v>6.124000000000002</v>
+        <v>6.068800000000001</v>
       </c>
       <c r="L32" t="n">
         <v>0.36</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1423</v>
+        <v>0.1418</v>
       </c>
       <c r="N32" t="n">
-        <v>0.9909000000000002</v>
+        <v>0.8379999999999999</v>
       </c>
       <c r="O32" t="n">
-        <v>2.786800000000001</v>
+        <v>4.865499999999997</v>
       </c>
     </row>
     <row r="33">
@@ -1970,7 +1970,7 @@
         <v>68.08</v>
       </c>
       <c r="C33" t="n">
-        <v>2.744399999999999</v>
+        <v>2.7819</v>
       </c>
       <c r="D33" t="n">
         <v>0.26</v>
@@ -2006,7 +2006,7 @@
         <v>0.23</v>
       </c>
       <c r="O33" t="n">
-        <v>1.501199999999999</v>
+        <v>3.077699999999997</v>
       </c>
     </row>
     <row r="34">
@@ -2050,10 +2050,10 @@
         <v>0.25</v>
       </c>
       <c r="N34" t="n">
-        <v>0.9995000000000007</v>
+        <v>1.105200000000001</v>
       </c>
       <c r="O34" t="n">
-        <v>1.6574</v>
+        <v>3.028099999999999</v>
       </c>
     </row>
     <row r="35">
@@ -2064,7 +2064,7 @@
         <v>34.34</v>
       </c>
       <c r="C35" t="n">
-        <v>4.604000000000006</v>
+        <v>4.639400000000005</v>
       </c>
       <c r="D35" t="n">
         <v>1.41</v>
@@ -2082,7 +2082,7 @@
         <v>2.12</v>
       </c>
       <c r="I35" t="n">
-        <v>2.512399999999999</v>
+        <v>2.5713</v>
       </c>
       <c r="J35" t="n">
         <v>39.22</v>
@@ -2091,7 +2091,7 @@
         <v>10.29</v>
       </c>
       <c r="L35" t="n">
-        <v>6.164900000000002</v>
+        <v>6.770000000000005</v>
       </c>
       <c r="M35" t="n">
         <v>0.35</v>
@@ -2100,7 +2100,7 @@
         <v>0.4</v>
       </c>
       <c r="O35" t="n">
-        <v>7.333300000000001</v>
+        <v>6.472400000000004</v>
       </c>
     </row>
     <row r="36">
@@ -2111,10 +2111,10 @@
         <v>36.93</v>
       </c>
       <c r="C36" t="n">
-        <v>4.467800000000008</v>
+        <v>4.524000000000004</v>
       </c>
       <c r="D36" t="n">
-        <v>2.188999999999998</v>
+        <v>1.206999999999998</v>
       </c>
       <c r="E36" t="n">
         <v>4.24</v>
@@ -2129,7 +2129,7 @@
         <v>2.74</v>
       </c>
       <c r="I36" t="n">
-        <v>2.623699999999999</v>
+        <v>2.588799999999999</v>
       </c>
       <c r="J36" t="n">
         <v>37.74</v>
@@ -2147,7 +2147,7 @@
         <v>0.44</v>
       </c>
       <c r="O36" t="n">
-        <v>6.403300000000002</v>
+        <v>7.495300000000002</v>
       </c>
     </row>
     <row r="37">
@@ -2158,10 +2158,10 @@
         <v>65.91</v>
       </c>
       <c r="C37" t="n">
-        <v>3.206500000000001</v>
+        <v>3.016300000000002</v>
       </c>
       <c r="D37" t="n">
-        <v>2.213599999999998</v>
+        <v>1.204099999999999</v>
       </c>
       <c r="E37" t="n">
         <v>1.6</v>
@@ -2191,10 +2191,10 @@
         <v>0.3</v>
       </c>
       <c r="N37" t="n">
-        <v>0.6830999999999996</v>
+        <v>0.6853999999999995</v>
       </c>
       <c r="O37" t="n">
-        <v>1.789199999999999</v>
+        <v>1.871399999999999</v>
       </c>
     </row>
     <row r="38">
@@ -2205,7 +2205,7 @@
         <v>69.70999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>2.879200000000001</v>
+        <v>2.8611</v>
       </c>
       <c r="D38" t="n">
         <v>0.21</v>
@@ -2214,7 +2214,7 @@
         <v>0.46</v>
       </c>
       <c r="F38" t="n">
-        <v>1.843199999999999</v>
+        <v>1.768099999999999</v>
       </c>
       <c r="G38" t="n">
         <v>2.36</v>
@@ -2235,13 +2235,13 @@
         <v>0.17</v>
       </c>
       <c r="M38" t="n">
-        <v>0.2830000000000003</v>
+        <v>0.2784000000000002</v>
       </c>
       <c r="N38" t="n">
-        <v>0.9557000000000002</v>
+        <v>1.086600000000001</v>
       </c>
       <c r="O38" t="n">
-        <v>1.882399999999999</v>
+        <v>2.2375</v>
       </c>
     </row>
     <row r="39">
@@ -2252,7 +2252,7 @@
         <v>75.51000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>3.404300000000003</v>
+        <v>3.538700000000002</v>
       </c>
       <c r="D39" t="n">
         <v>0.15</v>
@@ -2267,7 +2267,7 @@
         <v>2.35</v>
       </c>
       <c r="H39" t="n">
-        <v>1.004600000000001</v>
+        <v>1.0003</v>
       </c>
       <c r="I39" t="n">
         <v>0.47</v>
@@ -2282,13 +2282,13 @@
         <v>0.13</v>
       </c>
       <c r="M39" t="n">
-        <v>0.3854000000000001</v>
+        <v>0.3360000000000004</v>
       </c>
       <c r="N39" t="n">
-        <v>1.0469</v>
+        <v>0.8676999999999998</v>
       </c>
       <c r="O39" t="n">
-        <v>1.995999999999999</v>
+        <v>2.310199999999999</v>
       </c>
     </row>
     <row r="40">
@@ -2299,7 +2299,7 @@
         <v>35.78</v>
       </c>
       <c r="C40" t="n">
-        <v>2.2908</v>
+        <v>2.5446</v>
       </c>
       <c r="D40" t="n">
         <v>0.25</v>
@@ -2308,7 +2308,7 @@
         <v>0.78</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6986999999999999</v>
+        <v>0.7428</v>
       </c>
       <c r="G40" t="n">
         <v>1.62</v>
@@ -2332,10 +2332,10 @@
         <v>0.22</v>
       </c>
       <c r="N40" t="n">
-        <v>0.6883999999999996</v>
+        <v>0.6335999999999994</v>
       </c>
       <c r="O40" t="n">
-        <v>5.8565</v>
+        <v>7.793900000000002</v>
       </c>
     </row>
     <row r="41">
@@ -2346,16 +2346,16 @@
         <v>65.91</v>
       </c>
       <c r="C41" t="n">
-        <v>2.5861</v>
+        <v>2.687799999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2371000000000001</v>
+        <v>0.2472000000000003</v>
       </c>
       <c r="E41" t="n">
         <v>0.38</v>
       </c>
       <c r="F41" t="n">
-        <v>1.739799999999998</v>
+        <v>1.651499999999999</v>
       </c>
       <c r="G41" t="n">
         <v>1.44</v>
@@ -2376,13 +2376,13 @@
         <v>0.42</v>
       </c>
       <c r="M41" t="n">
-        <v>0.2613000000000001</v>
+        <v>0.2812000000000002</v>
       </c>
       <c r="N41" t="n">
-        <v>0.9382000000000003</v>
+        <v>0.9819000000000007</v>
       </c>
       <c r="O41" t="n">
-        <v>1.922399999999999</v>
+        <v>3.5151</v>
       </c>
     </row>
     <row r="42">
@@ -2402,7 +2402,7 @@
         <v>0.37</v>
       </c>
       <c r="F42" t="n">
-        <v>0.6866999999999999</v>
+        <v>0.6527999999999997</v>
       </c>
       <c r="G42" t="n">
         <v>1.6</v>
@@ -2426,10 +2426,10 @@
         <v>0.22</v>
       </c>
       <c r="N42" t="n">
-        <v>0.7193999999999998</v>
+        <v>0.6358999999999995</v>
       </c>
       <c r="O42" t="n">
-        <v>5.8565</v>
+        <v>7.793900000000002</v>
       </c>
     </row>
     <row r="43">
@@ -2440,7 +2440,7 @@
         <v>60.12</v>
       </c>
       <c r="C43" t="n">
-        <v>4.210100000000003</v>
+        <v>5.095200000000005</v>
       </c>
       <c r="D43" t="n">
         <v>0.23</v>
@@ -2449,13 +2449,13 @@
         <v>0.89</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7996000000000002</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="G43" t="n">
         <v>2.72</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9347999999999999</v>
+        <v>1.1748</v>
       </c>
       <c r="I43" t="n">
         <v>3.01</v>
@@ -2473,7 +2473,7 @@
         <v>0.31</v>
       </c>
       <c r="N43" t="n">
-        <v>0.6305999999999994</v>
+        <v>0.5626999999999992</v>
       </c>
       <c r="O43" t="n">
         <v>3.66</v>
@@ -2490,13 +2490,13 @@
         <v>1.38</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2683</v>
+        <v>0.2868999999999999</v>
       </c>
       <c r="E44" t="n">
         <v>0.68</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7643999999999999</v>
+        <v>0.7801999999999998</v>
       </c>
       <c r="G44" t="n">
         <v>2.57</v>
@@ -2520,10 +2520,10 @@
         <v>0.41</v>
       </c>
       <c r="N44" t="n">
-        <v>0.7549999999999999</v>
+        <v>0.7208999999999999</v>
       </c>
       <c r="O44" t="n">
-        <v>6.005100000000001</v>
+        <v>7.814500000000002</v>
       </c>
     </row>
     <row r="45">
@@ -2534,22 +2534,22 @@
         <v>26.25</v>
       </c>
       <c r="C45" t="n">
-        <v>2.122199999999999</v>
+        <v>2.357599999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3029000000000002</v>
+        <v>0.3068</v>
       </c>
       <c r="E45" t="n">
         <v>1.11</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9314000000000003</v>
+        <v>0.9031999999999999</v>
       </c>
       <c r="G45" t="n">
         <v>0.5</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4890000000000003</v>
+        <v>0.5040999999999997</v>
       </c>
       <c r="I45" t="n">
         <v>0.88</v>
@@ -2567,10 +2567,10 @@
         <v>0.61</v>
       </c>
       <c r="N45" t="n">
-        <v>0.7273999999999998</v>
+        <v>0.6735999999999998</v>
       </c>
       <c r="O45" t="n">
-        <v>7.327399999999998</v>
+        <v>8.199400000000004</v>
       </c>
     </row>
     <row r="46">
@@ -2581,16 +2581,16 @@
         <v>16.71</v>
       </c>
       <c r="C46" t="n">
-        <v>3.530600000000002</v>
+        <v>3.892400000000004</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3785999999999999</v>
+        <v>0.3732000000000002</v>
       </c>
       <c r="E46" t="n">
         <v>1.87</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8612000000000003</v>
+        <v>0.7903000000000001</v>
       </c>
       <c r="G46" t="n">
         <v>0.45</v>
@@ -2599,7 +2599,7 @@
         <v>0.19</v>
       </c>
       <c r="I46" t="n">
-        <v>4.563599999999997</v>
+        <v>4.601799999999995</v>
       </c>
       <c r="J46" t="n">
         <v>70.20999999999999</v>
@@ -2614,10 +2614,10 @@
         <v>0.68</v>
       </c>
       <c r="N46" t="n">
-        <v>0.6777999999999993</v>
+        <v>0.5726999999999992</v>
       </c>
       <c r="O46" t="n">
-        <v>7.340499999999999</v>
+        <v>8.502700000000006</v>
       </c>
     </row>
     <row r="47">
@@ -2628,7 +2628,7 @@
         <v>18.46</v>
       </c>
       <c r="C47" t="n">
-        <v>3.325800000000005</v>
+        <v>3.266900000000004</v>
       </c>
       <c r="D47" t="n">
         <v>0.44</v>
@@ -2661,10 +2661,10 @@
         <v>0.47</v>
       </c>
       <c r="N47" t="n">
-        <v>0.9117999999999999</v>
+        <v>0.9579000000000001</v>
       </c>
       <c r="O47" t="n">
-        <v>7.868300000000002</v>
+        <v>7.504400000000003</v>
       </c>
     </row>
     <row r="48">
@@ -2690,7 +2690,7 @@
         <v>3.53</v>
       </c>
       <c r="H48" t="n">
-        <v>1.3902</v>
+        <v>1.3046</v>
       </c>
       <c r="I48" t="n">
         <v>2.67</v>
@@ -2708,10 +2708,10 @@
         <v>0.35</v>
       </c>
       <c r="N48" t="n">
-        <v>0.4751999999999995</v>
+        <v>0.4953999999999993</v>
       </c>
       <c r="O48" t="n">
-        <v>2.374799999999999</v>
+        <v>2.7103</v>
       </c>
     </row>
     <row r="49">
@@ -2728,7 +2728,7 @@
         <v>0.35</v>
       </c>
       <c r="E49" t="n">
-        <v>3.607900000000001</v>
+        <v>3.4883</v>
       </c>
       <c r="F49" t="n">
         <v>1.16</v>
@@ -2737,7 +2737,7 @@
         <v>5.66</v>
       </c>
       <c r="H49" t="n">
-        <v>1.7149</v>
+        <v>1.7982</v>
       </c>
       <c r="I49" t="n">
         <v>2.72</v>
@@ -2749,16 +2749,16 @@
         <v>10.88</v>
       </c>
       <c r="L49" t="n">
-        <v>2.8067</v>
+        <v>2.978999999999999</v>
       </c>
       <c r="M49" t="n">
-        <v>0.3667000000000001</v>
+        <v>0.3333999999999999</v>
       </c>
       <c r="N49" t="n">
-        <v>0.4054999999999997</v>
+        <v>0.5106999999999993</v>
       </c>
       <c r="O49" t="n">
-        <v>2.3576</v>
+        <v>2.471600000000001</v>
       </c>
     </row>
     <row r="50">
@@ -2769,10 +2769,10 @@
         <v>12.41</v>
       </c>
       <c r="C50" t="n">
-        <v>3.608800000000004</v>
+        <v>3.884000000000006</v>
       </c>
       <c r="D50" t="n">
-        <v>1.1004</v>
+        <v>0.6036999999999998</v>
       </c>
       <c r="E50" t="n">
         <v>5.24</v>
@@ -2796,16 +2796,16 @@
         <v>7.29</v>
       </c>
       <c r="L50" t="n">
-        <v>10.4953</v>
+        <v>9.575900000000001</v>
       </c>
       <c r="M50" t="n">
         <v>0.64</v>
       </c>
       <c r="N50" t="n">
-        <v>0.6046999999999995</v>
+        <v>0.5188999999999995</v>
       </c>
       <c r="O50" t="n">
-        <v>9.839700000000001</v>
+        <v>9.992000000000006</v>
       </c>
     </row>
     <row r="51">
@@ -2816,10 +2816,10 @@
         <v>21.7</v>
       </c>
       <c r="C51" t="n">
-        <v>2.522000000000001</v>
+        <v>2.658800000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>1.729199999999999</v>
+        <v>1.6854</v>
       </c>
       <c r="E51" t="n">
         <v>6.4</v>
@@ -2849,10 +2849,10 @@
         <v>0.47</v>
       </c>
       <c r="N51" t="n">
-        <v>0.6237999999999994</v>
+        <v>0.5122999999999994</v>
       </c>
       <c r="O51" t="n">
-        <v>7.887700000000002</v>
+        <v>7.593600000000002</v>
       </c>
     </row>
     <row r="52">
@@ -2872,7 +2872,7 @@
         <v>2.14</v>
       </c>
       <c r="F52" t="n">
-        <v>1.3276</v>
+        <v>1.359</v>
       </c>
       <c r="G52" t="n">
         <v>12.69</v>
@@ -2890,16 +2890,16 @@
         <v>5.22</v>
       </c>
       <c r="L52" t="n">
-        <v>1.799699999999999</v>
+        <v>1.930699999999999</v>
       </c>
       <c r="M52" t="n">
         <v>0.26</v>
       </c>
       <c r="N52" t="n">
-        <v>0.8042</v>
+        <v>0.8112000000000004</v>
       </c>
       <c r="O52" t="n">
-        <v>1.822699999999999</v>
+        <v>3.3001</v>
       </c>
     </row>
     <row r="53">
@@ -2925,7 +2925,7 @@
         <v>5</v>
       </c>
       <c r="H53" t="n">
-        <v>1.0737</v>
+        <v>0.8542999999999996</v>
       </c>
       <c r="I53" t="n">
         <v>0.53</v>
@@ -2937,16 +2937,16 @@
         <v>10.96</v>
       </c>
       <c r="L53" t="n">
-        <v>0.4273</v>
+        <v>0.3334000000000001</v>
       </c>
       <c r="M53" t="n">
         <v>0.23</v>
       </c>
       <c r="N53" t="n">
-        <v>0.6376999999999995</v>
+        <v>0.5397999999999994</v>
       </c>
       <c r="O53" t="n">
-        <v>2.830400000000001</v>
+        <v>4.254799999999999</v>
       </c>
     </row>
     <row r="54">
@@ -2957,13 +2957,13 @@
         <v>55.21</v>
       </c>
       <c r="C54" t="n">
-        <v>2.489400000000001</v>
+        <v>2.7467</v>
       </c>
       <c r="D54" t="n">
         <v>0.25</v>
       </c>
       <c r="E54" t="n">
-        <v>2.339300000000001</v>
+        <v>2.028900000000001</v>
       </c>
       <c r="F54" t="n">
         <v>1.67</v>
@@ -2972,7 +2972,7 @@
         <v>4.79</v>
       </c>
       <c r="H54" t="n">
-        <v>1.1105</v>
+        <v>1.0155</v>
       </c>
       <c r="I54" t="n">
         <v>0.77</v>
@@ -2990,10 +2990,10 @@
         <v>0.43</v>
       </c>
       <c r="N54" t="n">
-        <v>0.7179999999999999</v>
+        <v>0.8256000000000006</v>
       </c>
       <c r="O54" t="n">
-        <v>1.984899999999999</v>
+        <v>2.5629</v>
       </c>
     </row>
     <row r="55">
@@ -3019,7 +3019,7 @@
         <v>3.06</v>
       </c>
       <c r="H55" t="n">
-        <v>1.8248</v>
+        <v>1.5842</v>
       </c>
       <c r="I55" t="n">
         <v>0.65</v>
@@ -3037,10 +3037,10 @@
         <v>0.85</v>
       </c>
       <c r="N55" t="n">
-        <v>0.6948999999999996</v>
+        <v>0.5946999999999991</v>
       </c>
       <c r="O55" t="n">
-        <v>5.265100000000001</v>
+        <v>6.875299999999998</v>
       </c>
     </row>
     <row r="56">
@@ -3069,7 +3069,7 @@
         <v>1.03</v>
       </c>
       <c r="I56" t="n">
-        <v>1.000300000000002</v>
+        <v>1.502200000000002</v>
       </c>
       <c r="J56" t="n">
         <v>15.71</v>
@@ -3087,7 +3087,7 @@
         <v>1.31</v>
       </c>
       <c r="O56" t="n">
-        <v>1.722499999999999</v>
+        <v>1.896199999999999</v>
       </c>
     </row>
     <row r="57">
@@ -3098,10 +3098,10 @@
         <v>28.79</v>
       </c>
       <c r="C57" t="n">
-        <v>2.727600000000002</v>
+        <v>2.604900000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>2.304999999999998</v>
+        <v>1.298199999999998</v>
       </c>
       <c r="E57" t="n">
         <v>4.58</v>
@@ -3131,10 +3131,10 @@
         <v>0.46</v>
       </c>
       <c r="N57" t="n">
-        <v>0.7195999999999997</v>
+        <v>0.8756999999999997</v>
       </c>
       <c r="O57" t="n">
-        <v>7.581900000000002</v>
+        <v>7.214800000000004</v>
       </c>
     </row>
     <row r="58">
@@ -3145,7 +3145,7 @@
         <v>54.61</v>
       </c>
       <c r="C58" t="n">
-        <v>2.805500000000001</v>
+        <v>2.998300000000002</v>
       </c>
       <c r="D58" t="n">
         <v>0.3</v>
@@ -3178,10 +3178,10 @@
         <v>0.3</v>
       </c>
       <c r="N58" t="n">
-        <v>0.4595999999999993</v>
+        <v>0.4838999999999994</v>
       </c>
       <c r="O58" t="n">
-        <v>2.0947</v>
+        <v>2.7161</v>
       </c>
     </row>
     <row r="59">
@@ -3192,10 +3192,10 @@
         <v>17.98</v>
       </c>
       <c r="C59" t="n">
-        <v>3.651500000000003</v>
+        <v>3.356200000000002</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3817999999999999</v>
+        <v>0.3885000000000002</v>
       </c>
       <c r="E59" t="n">
         <v>3.19</v>
@@ -3225,10 +3225,10 @@
         <v>0.66</v>
       </c>
       <c r="N59" t="n">
-        <v>0.6394999999999994</v>
+        <v>0.5934999999999993</v>
       </c>
       <c r="O59" t="n">
-        <v>10.7932</v>
+        <v>12.2144</v>
       </c>
     </row>
     <row r="60">
@@ -3239,10 +3239,10 @@
         <v>45.02</v>
       </c>
       <c r="C60" t="n">
-        <v>2.309700000000001</v>
+        <v>2.3426</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3305000000000001</v>
+        <v>0.3381000000000002</v>
       </c>
       <c r="E60" t="n">
         <v>3.12</v>
@@ -3254,7 +3254,7 @@
         <v>4.16</v>
       </c>
       <c r="H60" t="n">
-        <v>1.255999999999999</v>
+        <v>1.377</v>
       </c>
       <c r="I60" t="n">
         <v>0.7</v>
@@ -3272,10 +3272,10 @@
         <v>0.23</v>
       </c>
       <c r="N60" t="n">
-        <v>0.4917999999999993</v>
+        <v>0.5455999999999994</v>
       </c>
       <c r="O60" t="n">
-        <v>7.604900000000002</v>
+        <v>8.257999999999999</v>
       </c>
     </row>
     <row r="61">
@@ -3286,10 +3286,10 @@
         <v>24.61</v>
       </c>
       <c r="C61" t="n">
-        <v>2.354400000000001</v>
+        <v>2.6889</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3413000000000002</v>
+        <v>0.3199000000000002</v>
       </c>
       <c r="E61" t="n">
         <v>3.58</v>
@@ -3322,7 +3322,7 @@
         <v>0.47</v>
       </c>
       <c r="O61" t="n">
-        <v>7.414800000000001</v>
+        <v>6.643300000000002</v>
       </c>
     </row>
     <row r="62">
@@ -3333,10 +3333,10 @@
         <v>21.35</v>
       </c>
       <c r="C62" t="n">
-        <v>1.755599999999999</v>
+        <v>2.053799999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7574999999999994</v>
+        <v>0.4832000000000001</v>
       </c>
       <c r="E62" t="n">
         <v>5.13</v>
@@ -3357,19 +3357,19 @@
         <v>51.34</v>
       </c>
       <c r="K62" t="n">
-        <v>8.365</v>
+        <v>9.262199999999993</v>
       </c>
       <c r="L62" t="n">
         <v>8.75</v>
       </c>
       <c r="M62" t="n">
-        <v>0.4791999999999997</v>
+        <v>0.4960999999999994</v>
       </c>
       <c r="N62" t="n">
-        <v>0.9006999999999999</v>
+        <v>0.9139</v>
       </c>
       <c r="O62" t="n">
-        <v>8.263300000000005</v>
+        <v>9.410100000000003</v>
       </c>
     </row>
     <row r="63">
@@ -3383,7 +3383,7 @@
         <v>1.22</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3546000000000001</v>
+        <v>0.3848000000000001</v>
       </c>
       <c r="E63" t="n">
         <v>2.27</v>
@@ -3413,10 +3413,10 @@
         <v>0.44</v>
       </c>
       <c r="N63" t="n">
-        <v>0.7398999999999998</v>
+        <v>0.7079999999999999</v>
       </c>
       <c r="O63" t="n">
-        <v>9.053500000000005</v>
+        <v>10.219</v>
       </c>
     </row>
     <row r="64">
@@ -3442,7 +3442,7 @@
         <v>6.06</v>
       </c>
       <c r="H64" t="n">
-        <v>0.9927999999999997</v>
+        <v>0.7802999999999999</v>
       </c>
       <c r="I64" t="n">
         <v>0.54</v>
@@ -3454,16 +3454,16 @@
         <v>8.99</v>
       </c>
       <c r="L64" t="n">
-        <v>0.6005999999999999</v>
+        <v>0.4277</v>
       </c>
       <c r="M64" t="n">
         <v>0.27</v>
       </c>
       <c r="N64" t="n">
-        <v>0.6755</v>
+        <v>0.5824999999999992</v>
       </c>
       <c r="O64" t="n">
-        <v>1.851299999999999</v>
+        <v>3.2837</v>
       </c>
     </row>
     <row r="65">
@@ -3474,7 +3474,7 @@
         <v>22.28</v>
       </c>
       <c r="C65" t="n">
-        <v>2.467</v>
+        <v>2.6381</v>
       </c>
       <c r="D65" t="n">
         <v>0.32</v>
@@ -3489,7 +3489,7 @@
         <v>4.15</v>
       </c>
       <c r="H65" t="n">
-        <v>1.371299999999999</v>
+        <v>1.3109</v>
       </c>
       <c r="I65" t="n">
         <v>0.83</v>
@@ -3507,10 +3507,10 @@
         <v>0.88</v>
       </c>
       <c r="N65" t="n">
-        <v>0.6392999999999993</v>
+        <v>0.7356999999999995</v>
       </c>
       <c r="O65" t="n">
-        <v>7.215000000000001</v>
+        <v>7.079200000000002</v>
       </c>
     </row>
     <row r="66">
@@ -3521,13 +3521,13 @@
         <v>17.11</v>
       </c>
       <c r="C66" t="n">
-        <v>2.926800000000002</v>
+        <v>2.926300000000002</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5524999999999999</v>
+        <v>0.5129999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>4.806299999999995</v>
+        <v>4.850799999999996</v>
       </c>
       <c r="F66" t="n">
         <v>1.11</v>
@@ -3536,7 +3536,7 @@
         <v>3.65</v>
       </c>
       <c r="H66" t="n">
-        <v>1.643599999999998</v>
+        <v>1.5767</v>
       </c>
       <c r="I66" t="n">
         <v>1.34</v>
@@ -3545,7 +3545,7 @@
         <v>58.46</v>
       </c>
       <c r="K66" t="n">
-        <v>6.229099999999999</v>
+        <v>7.207600000000001</v>
       </c>
       <c r="L66" t="n">
         <v>14.13</v>
@@ -3554,10 +3554,10 @@
         <v>1.12</v>
       </c>
       <c r="N66" t="n">
-        <v>0.4531999999999994</v>
+        <v>0.4653999999999994</v>
       </c>
       <c r="O66" t="n">
-        <v>9.423300000000001</v>
+        <v>8.674800000000003</v>
       </c>
     </row>
     <row r="67">
@@ -3571,19 +3571,19 @@
         <v>2.71</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2674000000000001</v>
+        <v>0.2689000000000001</v>
       </c>
       <c r="E67" t="n">
         <v>1.13</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7515999999999998</v>
+        <v>0.7199999999999998</v>
       </c>
       <c r="G67" t="n">
         <v>1.45</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4245</v>
+        <v>0.4575999999999998</v>
       </c>
       <c r="I67" t="n">
         <v>0.86</v>
@@ -3598,13 +3598,13 @@
         <v>0.35</v>
       </c>
       <c r="M67" t="n">
-        <v>0.2608999999999998</v>
+        <v>0.2816999999999999</v>
       </c>
       <c r="N67" t="n">
-        <v>0.7163999999999997</v>
+        <v>0.5858999999999994</v>
       </c>
       <c r="O67" t="n">
-        <v>5.8864</v>
+        <v>7.670600000000003</v>
       </c>
     </row>
     <row r="68">
@@ -3615,22 +3615,22 @@
         <v>29.15</v>
       </c>
       <c r="C68" t="n">
-        <v>3.764800000000003</v>
+        <v>3.624900000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.2750000000000002</v>
+        <v>0.2703000000000001</v>
       </c>
       <c r="E68" t="n">
         <v>1.21</v>
       </c>
       <c r="F68" t="n">
-        <v>0.7168999999999996</v>
+        <v>0.7645999999999998</v>
       </c>
       <c r="G68" t="n">
         <v>1.85</v>
       </c>
       <c r="H68" t="n">
-        <v>0.5666</v>
+        <v>0.5794999999999995</v>
       </c>
       <c r="I68" t="n">
         <v>0.79</v>
@@ -3645,13 +3645,13 @@
         <v>2.54</v>
       </c>
       <c r="M68" t="n">
-        <v>0.4925999999999995</v>
+        <v>0.4463999999999997</v>
       </c>
       <c r="N68" t="n">
-        <v>0.7139999999999997</v>
+        <v>0.6237999999999991</v>
       </c>
       <c r="O68" t="n">
-        <v>7.681600000000002</v>
+        <v>8.152800000000004</v>
       </c>
     </row>
     <row r="69">
@@ -3662,22 +3662,22 @@
         <v>25.42</v>
       </c>
       <c r="C69" t="n">
-        <v>3.741600000000004</v>
+        <v>3.647400000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3107000000000002</v>
+        <v>0.2743000000000001</v>
       </c>
       <c r="E69" t="n">
         <v>1.31</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6645</v>
+        <v>0.7757000000000002</v>
       </c>
       <c r="G69" t="n">
         <v>2.18</v>
       </c>
       <c r="H69" t="n">
-        <v>0.5725999999999997</v>
+        <v>0.7057999999999994</v>
       </c>
       <c r="I69" t="n">
         <v>1.16</v>
@@ -3689,16 +3689,16 @@
         <v>17.3</v>
       </c>
       <c r="L69" t="n">
-        <v>3.280000000000001</v>
+        <v>2.900800000000001</v>
       </c>
       <c r="M69" t="n">
-        <v>0.4925999999999995</v>
+        <v>0.4784999999999999</v>
       </c>
       <c r="N69" t="n">
-        <v>0.6732999999999996</v>
+        <v>0.6001999999999993</v>
       </c>
       <c r="O69" t="n">
-        <v>7.710700000000002</v>
+        <v>9.084100000000003</v>
       </c>
     </row>
     <row r="70">
@@ -3709,7 +3709,7 @@
         <v>30.39</v>
       </c>
       <c r="C70" t="n">
-        <v>3.391300000000003</v>
+        <v>3.585300000000002</v>
       </c>
       <c r="D70" t="n">
         <v>0.34</v>
@@ -3742,10 +3742,10 @@
         <v>0.24</v>
       </c>
       <c r="N70" t="n">
-        <v>0.4755999999999992</v>
+        <v>0.4662999999999994</v>
       </c>
       <c r="O70" t="n">
-        <v>8.0524</v>
+        <v>6.951400000000003</v>
       </c>
     </row>
   </sheetData>

--- a/CUMCM2022支撑材料/excel/extract/data_imput/data_2.xlsx
+++ b/CUMCM2022支撑材料/excel/extract/data_imput/data_2.xlsx
@@ -513,7 +513,7 @@
         <v>69.33</v>
       </c>
       <c r="C2" t="n">
-        <v>3.583100000000004</v>
+        <v>3.945900000000005</v>
       </c>
       <c r="D2" t="n">
         <v>9.99</v>
@@ -534,19 +534,19 @@
         <v>3.87</v>
       </c>
       <c r="J2" t="n">
-        <v>1.688299999999999</v>
+        <v>2.0124</v>
       </c>
       <c r="K2" t="n">
-        <v>5.043600000000006</v>
+        <v>5.057900000000007</v>
       </c>
       <c r="L2" t="n">
         <v>1.17</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1292</v>
+        <v>0.09849999999999995</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7802999999999999</v>
+        <v>0.5647999999999995</v>
       </c>
       <c r="O2" t="n">
         <v>0.39</v>
@@ -560,7 +560,7 @@
         <v>36.28</v>
       </c>
       <c r="C3" t="n">
-        <v>3.031500000000002</v>
+        <v>2.789600000000001</v>
       </c>
       <c r="D3" t="n">
         <v>1.05</v>
@@ -584,7 +584,7 @@
         <v>47.43</v>
       </c>
       <c r="K3" t="n">
-        <v>8.142800000000003</v>
+        <v>8.247900000000001</v>
       </c>
       <c r="L3" t="n">
         <v>3.57</v>
@@ -593,10 +593,10 @@
         <v>0.19</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5609999999999991</v>
+        <v>0.497799999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>4.057299999999999</v>
+        <v>4.125900000000001</v>
       </c>
     </row>
     <row r="4">
@@ -607,7 +607,7 @@
         <v>87.05</v>
       </c>
       <c r="C4" t="n">
-        <v>2.2341</v>
+        <v>2.4534</v>
       </c>
       <c r="D4" t="n">
         <v>5.19</v>
@@ -616,13 +616,13 @@
         <v>2.01</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8919999999999999</v>
+        <v>0.9731000000000002</v>
       </c>
       <c r="G4" t="n">
         <v>4.06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6293000000000003</v>
+        <v>0.9016000000000004</v>
       </c>
       <c r="I4" t="n">
         <v>0.78</v>
@@ -631,19 +631,19 @@
         <v>0.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2.6475</v>
+        <v>2.655800000000001</v>
       </c>
       <c r="L4" t="n">
         <v>0.66</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1062</v>
+        <v>0.1063</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7429999999999997</v>
+        <v>0.6725999999999995</v>
       </c>
       <c r="O4" t="n">
-        <v>2.489100000000001</v>
+        <v>1.168899999999999</v>
       </c>
     </row>
     <row r="5">
@@ -654,7 +654,7 @@
         <v>61.71</v>
       </c>
       <c r="C5" t="n">
-        <v>3.632800000000004</v>
+        <v>3.952900000000004</v>
       </c>
       <c r="D5" t="n">
         <v>12.37</v>
@@ -687,10 +687,10 @@
         <v>0.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7494</v>
+        <v>0.5149999999999995</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6034999999999997</v>
+        <v>0.6975999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -701,7 +701,7 @@
         <v>65.88</v>
       </c>
       <c r="C6" t="n">
-        <v>3.290300000000002</v>
+        <v>3.472300000000003</v>
       </c>
       <c r="D6" t="n">
         <v>9.67</v>
@@ -722,19 +722,19 @@
         <v>2.18</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7181999999999994</v>
+        <v>0.7821999999999996</v>
       </c>
       <c r="K6" t="n">
-        <v>1.3837</v>
+        <v>1.3858</v>
       </c>
       <c r="L6" t="n">
         <v>0.79</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07399999999999994</v>
+        <v>0.07599999999999996</v>
       </c>
       <c r="N6" t="n">
-        <v>1.2711</v>
+        <v>1.1071</v>
       </c>
       <c r="O6" t="n">
         <v>0.36</v>
@@ -748,7 +748,7 @@
         <v>61.58</v>
       </c>
       <c r="C7" t="n">
-        <v>3.327000000000004</v>
+        <v>3.546600000000004</v>
       </c>
       <c r="D7" t="n">
         <v>10.95</v>
@@ -769,10 +769,10 @@
         <v>3.27</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8941999999999994</v>
+        <v>1.4834</v>
       </c>
       <c r="K7" t="n">
-        <v>2.721000000000002</v>
+        <v>2.457900000000002</v>
       </c>
       <c r="L7" t="n">
         <v>0.9399999999999999</v>
@@ -781,7 +781,7 @@
         <v>0.06</v>
       </c>
       <c r="N7" t="n">
-        <v>1.2669</v>
+        <v>1.118400000000001</v>
       </c>
       <c r="O7" t="n">
         <v>0.47</v>
@@ -795,13 +795,13 @@
         <v>67.65000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>3.456400000000004</v>
+        <v>3.483200000000003</v>
       </c>
       <c r="D8" t="n">
         <v>7.37</v>
       </c>
       <c r="E8" t="n">
-        <v>5.779200000000003</v>
+        <v>5.890300000000004</v>
       </c>
       <c r="F8" t="n">
         <v>1.98</v>
@@ -828,10 +828,10 @@
         <v>0.11</v>
       </c>
       <c r="N8" t="n">
-        <v>1.129</v>
+        <v>0.9782000000000002</v>
       </c>
       <c r="O8" t="n">
-        <v>1.0379</v>
+        <v>0.9373999999999997</v>
       </c>
     </row>
     <row r="9">
@@ -842,7 +842,7 @@
         <v>59.81</v>
       </c>
       <c r="C9" t="n">
-        <v>3.392600000000004</v>
+        <v>3.395100000000005</v>
       </c>
       <c r="D9" t="n">
         <v>7.68</v>
@@ -875,10 +875,10 @@
         <v>0.12</v>
       </c>
       <c r="N9" t="n">
-        <v>1.1771</v>
+        <v>0.9917000000000002</v>
       </c>
       <c r="O9" t="n">
-        <v>1.257199999999999</v>
+        <v>1.0379</v>
       </c>
     </row>
     <row r="10">
@@ -889,16 +889,16 @@
         <v>92.63</v>
       </c>
       <c r="C10" t="n">
-        <v>3.660800000000004</v>
+        <v>3.719800000000004</v>
       </c>
       <c r="D10" t="n">
-        <v>1.008000000000001</v>
+        <v>2.6271</v>
       </c>
       <c r="E10" t="n">
         <v>1.07</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6302000000000001</v>
+        <v>0.6278999999999999</v>
       </c>
       <c r="G10" t="n">
         <v>1.98</v>
@@ -910,22 +910,22 @@
         <v>3.24</v>
       </c>
       <c r="J10" t="n">
-        <v>7.446300000000003</v>
+        <v>6.876400000000005</v>
       </c>
       <c r="K10" t="n">
-        <v>7.359999999999998</v>
+        <v>5.306600000000002</v>
       </c>
       <c r="L10" t="n">
         <v>0.61</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1758</v>
+        <v>0.1161</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7939999999999996</v>
+        <v>0.7264999999999994</v>
       </c>
       <c r="O10" t="n">
-        <v>4.856199999999997</v>
+        <v>4.2761</v>
       </c>
     </row>
     <row r="11">
@@ -936,22 +936,22 @@
         <v>20.14</v>
       </c>
       <c r="C11" t="n">
-        <v>5.491300000000003</v>
+        <v>5.676000000000003</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3061000000000001</v>
+        <v>0.3171000000000001</v>
       </c>
       <c r="E11" t="n">
         <v>1.48</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7935</v>
+        <v>0.7675000000000002</v>
       </c>
       <c r="G11" t="n">
         <v>1.34</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8603999999999998</v>
+        <v>0.7351999999999999</v>
       </c>
       <c r="I11" t="n">
         <v>10.41</v>
@@ -969,7 +969,7 @@
         <v>0.37</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5804999999999992</v>
+        <v>0.8038999999999997</v>
       </c>
       <c r="O11" t="n">
         <v>2.58</v>
@@ -983,22 +983,22 @@
         <v>4.61</v>
       </c>
       <c r="C12" t="n">
-        <v>5.408100000000006</v>
+        <v>5.642900000000003</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3557999999999998</v>
+        <v>0.3623</v>
       </c>
       <c r="E12" t="n">
         <v>3.19</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7818000000000008</v>
+        <v>0.7987000000000002</v>
       </c>
       <c r="G12" t="n">
         <v>1.11</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8180999999999995</v>
+        <v>0.6442999999999995</v>
       </c>
       <c r="I12" t="n">
         <v>3.14</v>
@@ -1016,7 +1016,7 @@
         <v>0.53</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5960999999999994</v>
+        <v>0.6968999999999997</v>
       </c>
       <c r="O12" t="n">
         <v>15.03</v>
@@ -1030,7 +1030,7 @@
         <v>95.02</v>
       </c>
       <c r="C13" t="n">
-        <v>2.5639</v>
+        <v>2.904600000000002</v>
       </c>
       <c r="D13" t="n">
         <v>0.59</v>
@@ -1039,7 +1039,7 @@
         <v>0.62</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6385999999999998</v>
+        <v>0.6363999999999997</v>
       </c>
       <c r="G13" t="n">
         <v>1.32</v>
@@ -1051,22 +1051,22 @@
         <v>1.55</v>
       </c>
       <c r="J13" t="n">
-        <v>7.682200000000003</v>
+        <v>8.643200000000004</v>
       </c>
       <c r="K13" t="n">
-        <v>8.107799999999996</v>
+        <v>9.509699999999995</v>
       </c>
       <c r="L13" t="n">
         <v>0.35</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1945</v>
+        <v>0.1918000000000001</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8398999999999998</v>
+        <v>0.7437999999999996</v>
       </c>
       <c r="O13" t="n">
-        <v>5.101499999999997</v>
+        <v>4.529199999999999</v>
       </c>
     </row>
     <row r="14">
@@ -1077,7 +1077,7 @@
         <v>96.77</v>
       </c>
       <c r="C14" t="n">
-        <v>2.542099999999999</v>
+        <v>3.161800000000001</v>
       </c>
       <c r="D14" t="n">
         <v>0.92</v>
@@ -1086,7 +1086,7 @@
         <v>0.21</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6514999999999997</v>
+        <v>0.6657999999999998</v>
       </c>
       <c r="G14" t="n">
         <v>0.8100000000000001</v>
@@ -1098,22 +1098,22 @@
         <v>0.84</v>
       </c>
       <c r="J14" t="n">
-        <v>9.343300000000001</v>
+        <v>8.689100000000002</v>
       </c>
       <c r="K14" t="n">
-        <v>8.894699999999997</v>
+        <v>9.833899999999998</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3429000000000004</v>
+        <v>0.3284000000000003</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2582</v>
+        <v>0.1948000000000001</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8515999999999998</v>
+        <v>0.7878999999999992</v>
       </c>
       <c r="O14" t="n">
-        <v>5.405299999999998</v>
+        <v>5.080799999999998</v>
       </c>
     </row>
     <row r="15">
@@ -1124,7 +1124,7 @@
         <v>33.59</v>
       </c>
       <c r="C15" t="n">
-        <v>5.274600000000004</v>
+        <v>5.487700000000005</v>
       </c>
       <c r="D15" t="n">
         <v>0.21</v>
@@ -1139,7 +1139,7 @@
         <v>2.69</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9882</v>
+        <v>0.7487999999999997</v>
       </c>
       <c r="I15" t="n">
         <v>4.93</v>
@@ -1157,10 +1157,10 @@
         <v>0.37</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5027999999999995</v>
+        <v>0.6407999999999994</v>
       </c>
       <c r="O15" t="n">
-        <v>6.945</v>
+        <v>5.830499999999997</v>
       </c>
     </row>
     <row r="16">
@@ -1171,7 +1171,7 @@
         <v>94.29000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>2.2743</v>
+        <v>2.611599999999998</v>
       </c>
       <c r="D16" t="n">
         <v>1.01</v>
@@ -1180,7 +1180,7 @@
         <v>0.72</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6618000000000001</v>
+        <v>0.6207999999999998</v>
       </c>
       <c r="G16" t="n">
         <v>1.46</v>
@@ -1192,22 +1192,22 @@
         <v>1.65</v>
       </c>
       <c r="J16" t="n">
-        <v>7.611800000000003</v>
+        <v>8.426100000000005</v>
       </c>
       <c r="K16" t="n">
-        <v>6.877699999999997</v>
+        <v>5.656899999999999</v>
       </c>
       <c r="L16" t="n">
         <v>0.15</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2423000000000001</v>
+        <v>0.2141000000000002</v>
       </c>
       <c r="N16" t="n">
-        <v>0.8220999999999996</v>
+        <v>0.7366999999999995</v>
       </c>
       <c r="O16" t="n">
-        <v>5.145299999999996</v>
+        <v>4.5278</v>
       </c>
     </row>
     <row r="17">
@@ -1227,7 +1227,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>1.1753</v>
+        <v>1.2944</v>
       </c>
       <c r="G17" t="n">
         <v>6.16</v>
@@ -1239,22 +1239,22 @@
         <v>4.73</v>
       </c>
       <c r="J17" t="n">
-        <v>2.4677</v>
+        <v>2.2097</v>
       </c>
       <c r="K17" t="n">
-        <v>7.784400000000005</v>
+        <v>9.168000000000001</v>
       </c>
       <c r="L17" t="n">
         <v>1.27</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1555</v>
+        <v>0.1933999999999998</v>
       </c>
       <c r="N17" t="n">
-        <v>0.7685000000000001</v>
+        <v>0.6987999999999999</v>
       </c>
       <c r="O17" t="n">
-        <v>0.8121999999999994</v>
+        <v>0.9938999999999996</v>
       </c>
     </row>
     <row r="18">
@@ -1289,19 +1289,19 @@
         <v>1.62</v>
       </c>
       <c r="K18" t="n">
-        <v>1.6548</v>
+        <v>2.2398</v>
       </c>
       <c r="L18" t="n">
         <v>0.16</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1372999999999998</v>
+        <v>0.1507999999999999</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5438</v>
+        <v>0.4418999999999998</v>
       </c>
       <c r="O18" t="n">
-        <v>4.462599999999999</v>
+        <v>3.523100000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1318,7 +1318,7 @@
         <v>7.44</v>
       </c>
       <c r="E19" t="n">
-        <v>1.4274</v>
+        <v>1.227399999999999</v>
       </c>
       <c r="F19" t="n">
         <v>1.02</v>
@@ -1342,13 +1342,13 @@
         <v>0.26</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1325999999999998</v>
+        <v>0.1218999999999999</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7844</v>
+        <v>0.7908999999999997</v>
       </c>
       <c r="O19" t="n">
-        <v>1.264799999999999</v>
+        <v>1.249199999999999</v>
       </c>
     </row>
     <row r="20">
@@ -1386,16 +1386,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6385999999999996</v>
+        <v>0.9382999999999998</v>
       </c>
       <c r="M20" t="n">
         <v>0.04</v>
       </c>
       <c r="N20" t="n">
-        <v>0.6421999999999995</v>
+        <v>0.5542999999999997</v>
       </c>
       <c r="O20" t="n">
-        <v>4.4246</v>
+        <v>3.520100000000002</v>
       </c>
     </row>
     <row r="21">
@@ -1412,13 +1412,13 @@
         <v>5.71</v>
       </c>
       <c r="E21" t="n">
-        <v>5.939600000000006</v>
+        <v>5.627100000000002</v>
       </c>
       <c r="F21" t="n">
         <v>0.85</v>
       </c>
       <c r="G21" t="n">
-        <v>9.906000000000017</v>
+        <v>9.770000000000017</v>
       </c>
       <c r="H21" t="n">
         <v>1.04</v>
@@ -1436,13 +1436,13 @@
         <v>0.18</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1146999999999999</v>
+        <v>0.1073999999999999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.8571999999999995</v>
+        <v>1.036599999999999</v>
       </c>
     </row>
     <row r="22">
@@ -1453,13 +1453,13 @@
         <v>79.45999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>2.3764</v>
+        <v>2.539200000000001</v>
       </c>
       <c r="D22" t="n">
         <v>9.42</v>
       </c>
       <c r="E22" t="n">
-        <v>1.3223</v>
+        <v>1.2073</v>
       </c>
       <c r="F22" t="n">
         <v>1.53</v>
@@ -1468,16 +1468,16 @@
         <v>3.05</v>
       </c>
       <c r="H22" t="n">
-        <v>1.995199999999999</v>
+        <v>2.3964</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8677999999999993</v>
+        <v>0.9971999999999995</v>
       </c>
       <c r="J22" t="n">
-        <v>11.6157</v>
+        <v>10.3447</v>
       </c>
       <c r="K22" t="n">
-        <v>4.252500000000003</v>
+        <v>5.428600000000001</v>
       </c>
       <c r="L22" t="n">
         <v>1.36</v>
@@ -1489,7 +1489,7 @@
         <v>2.36</v>
       </c>
       <c r="O22" t="n">
-        <v>1.347999999999999</v>
+        <v>1.309499999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1500,10 +1500,10 @@
         <v>29.64</v>
       </c>
       <c r="C23" t="n">
-        <v>3.833700000000003</v>
+        <v>3.586900000000005</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4014000000000004</v>
+        <v>0.7354000000000001</v>
       </c>
       <c r="E23" t="n">
         <v>2.93</v>
@@ -1533,10 +1533,10 @@
         <v>0.19</v>
       </c>
       <c r="N23" t="n">
-        <v>0.5181999999999993</v>
+        <v>0.5249999999999992</v>
       </c>
       <c r="O23" t="n">
-        <v>8.495800000000001</v>
+        <v>7.186699999999998</v>
       </c>
     </row>
     <row r="24">
@@ -1547,16 +1547,16 @@
         <v>37.36</v>
       </c>
       <c r="C24" t="n">
-        <v>5.192300000000005</v>
+        <v>5.369400000000005</v>
       </c>
       <c r="D24" t="n">
         <v>0.71</v>
       </c>
       <c r="E24" t="n">
-        <v>5.1165</v>
+        <v>5.137200000000002</v>
       </c>
       <c r="F24" t="n">
-        <v>1.1139</v>
+        <v>1.107199999999999</v>
       </c>
       <c r="G24" t="n">
         <v>5.45</v>
@@ -1577,13 +1577,13 @@
         <v>5.75</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2969000000000001</v>
+        <v>0.2906000000000001</v>
       </c>
       <c r="N24" t="n">
-        <v>0.4533999999999995</v>
+        <v>0.4546999999999994</v>
       </c>
       <c r="O24" t="n">
-        <v>4.164599999999998</v>
+        <v>4.743999999999997</v>
       </c>
     </row>
     <row r="25">
@@ -1594,10 +1594,10 @@
         <v>76.68000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>3.648600000000005</v>
+        <v>3.845600000000004</v>
       </c>
       <c r="D25" t="n">
-        <v>8.937600000000003</v>
+        <v>8.634700000000006</v>
       </c>
       <c r="E25" t="n">
         <v>4.71</v>
@@ -1624,13 +1624,13 @@
         <v>1.1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.09970000000000001</v>
+        <v>0.09459999999999996</v>
       </c>
       <c r="N25" t="n">
-        <v>0.9033999999999999</v>
+        <v>0.6198999999999996</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5162999999999998</v>
+        <v>0.6853999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -1641,7 +1641,7 @@
         <v>92.34999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>2.6748</v>
+        <v>2.7844</v>
       </c>
       <c r="D26" t="n">
         <v>0.74</v>
@@ -1662,22 +1662,22 @@
         <v>0.55</v>
       </c>
       <c r="J26" t="n">
-        <v>9.224399999999999</v>
+        <v>9.893399999999998</v>
       </c>
       <c r="K26" t="n">
-        <v>6.083700000000001</v>
+        <v>6.146199999999999</v>
       </c>
       <c r="L26" t="n">
         <v>0.21</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1696</v>
+        <v>0.1520000000000001</v>
       </c>
       <c r="N26" t="n">
-        <v>0.7006999999999995</v>
+        <v>0.6407999999999993</v>
       </c>
       <c r="O26" t="n">
-        <v>4.893399999999996</v>
+        <v>4.113599999999999</v>
       </c>
     </row>
     <row r="27">
@@ -1691,7 +1691,7 @@
         <v>7.92</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1858</v>
+        <v>0.1818</v>
       </c>
       <c r="E27" t="n">
         <v>0.5</v>
@@ -1703,7 +1703,7 @@
         <v>1.42</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5932999999999997</v>
+        <v>0.5932999999999999</v>
       </c>
       <c r="I27" t="n">
         <v>2.99</v>
@@ -1715,16 +1715,16 @@
         <v>11.86</v>
       </c>
       <c r="L27" t="n">
-        <v>0.5553000000000002</v>
+        <v>0.5534000000000003</v>
       </c>
       <c r="M27" t="n">
         <v>0.33</v>
       </c>
       <c r="N27" t="n">
-        <v>0.5288999999999995</v>
+        <v>0.6855999999999994</v>
       </c>
       <c r="O27" t="n">
-        <v>5.8563</v>
+        <v>5.565600000000001</v>
       </c>
     </row>
     <row r="28">
@@ -1735,22 +1735,22 @@
         <v>31.94</v>
       </c>
       <c r="C28" t="n">
-        <v>5.663100000000003</v>
+        <v>6.067299999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2041000000000001</v>
+        <v>0.2311</v>
       </c>
       <c r="E28" t="n">
         <v>0.47</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7835000000000001</v>
+        <v>0.7779000000000008</v>
       </c>
       <c r="G28" t="n">
         <v>1.59</v>
       </c>
       <c r="H28" t="n">
-        <v>0.7031999999999995</v>
+        <v>0.8047999999999995</v>
       </c>
       <c r="I28" t="n">
         <v>8.460000000000001</v>
@@ -1768,10 +1768,10 @@
         <v>0.91</v>
       </c>
       <c r="N28" t="n">
-        <v>0.5899999999999994</v>
+        <v>0.7036999999999997</v>
       </c>
       <c r="O28" t="n">
-        <v>8.284300000000004</v>
+        <v>5.400299999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1785,13 +1785,13 @@
         <v>2.31</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2441</v>
+        <v>0.6569999999999999</v>
       </c>
       <c r="E29" t="n">
         <v>0.63</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8008000000000005</v>
+        <v>0.8479000000000008</v>
       </c>
       <c r="G29" t="n">
         <v>1.9</v>
@@ -1815,10 +1815,10 @@
         <v>0.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.5871999999999994</v>
+        <v>0.6451999999999994</v>
       </c>
       <c r="O29" t="n">
-        <v>4.585800000000002</v>
+        <v>4.404000000000002</v>
       </c>
     </row>
     <row r="30">
@@ -1829,22 +1829,22 @@
         <v>19.79</v>
       </c>
       <c r="C30" t="n">
-        <v>5.422700000000003</v>
+        <v>5.692500000000003</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3068000000000001</v>
+        <v>0.3077000000000001</v>
       </c>
       <c r="E30" t="n">
         <v>1.44</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7883</v>
+        <v>0.7775000000000003</v>
       </c>
       <c r="G30" t="n">
         <v>0.7</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8665999999999997</v>
+        <v>0.7308999999999998</v>
       </c>
       <c r="I30" t="n">
         <v>10.57</v>
@@ -1862,7 +1862,7 @@
         <v>0.45</v>
       </c>
       <c r="N30" t="n">
-        <v>0.6607999999999996</v>
+        <v>0.7999999999999997</v>
       </c>
       <c r="O30" t="n">
         <v>1.96</v>
@@ -1876,7 +1876,7 @@
         <v>3.72</v>
       </c>
       <c r="C31" t="n">
-        <v>5.379900000000005</v>
+        <v>5.642900000000003</v>
       </c>
       <c r="D31" t="n">
         <v>0.4</v>
@@ -1885,13 +1885,13 @@
         <v>3.01</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7829</v>
+        <v>0.7786000000000003</v>
       </c>
       <c r="G31" t="n">
         <v>1.18</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7999999999999994</v>
+        <v>0.6194999999999995</v>
       </c>
       <c r="I31" t="n">
         <v>3.6</v>
@@ -1909,7 +1909,7 @@
         <v>0.62</v>
       </c>
       <c r="N31" t="n">
-        <v>0.5936999999999993</v>
+        <v>0.6954999999999997</v>
       </c>
       <c r="O31" t="n">
         <v>15.95</v>
@@ -1923,10 +1923,10 @@
         <v>92.72</v>
       </c>
       <c r="C32" t="n">
-        <v>2.372800000000001</v>
+        <v>2.502199999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>4.273099999999999</v>
+        <v>2.5931</v>
       </c>
       <c r="E32" t="n">
         <v>0.9399999999999999</v>
@@ -1944,22 +1944,22 @@
         <v>1.54</v>
       </c>
       <c r="J32" t="n">
-        <v>7.649500000000004</v>
+        <v>8.283900000000003</v>
       </c>
       <c r="K32" t="n">
-        <v>6.068800000000001</v>
+        <v>5.581499999999998</v>
       </c>
       <c r="L32" t="n">
         <v>0.36</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1418</v>
+        <v>0.1158000000000001</v>
       </c>
       <c r="N32" t="n">
-        <v>0.8379999999999999</v>
+        <v>0.7296999999999995</v>
       </c>
       <c r="O32" t="n">
-        <v>4.865499999999997</v>
+        <v>4.2265</v>
       </c>
     </row>
     <row r="33">
@@ -1970,7 +1970,7 @@
         <v>68.08</v>
       </c>
       <c r="C33" t="n">
-        <v>2.7819</v>
+        <v>2.6831</v>
       </c>
       <c r="D33" t="n">
         <v>0.26</v>
@@ -2006,7 +2006,7 @@
         <v>0.23</v>
       </c>
       <c r="O33" t="n">
-        <v>3.077699999999997</v>
+        <v>4.160299999999999</v>
       </c>
     </row>
     <row r="34">
@@ -2050,10 +2050,10 @@
         <v>0.25</v>
       </c>
       <c r="N34" t="n">
-        <v>1.105200000000001</v>
+        <v>1.280300000000001</v>
       </c>
       <c r="O34" t="n">
-        <v>3.028099999999999</v>
+        <v>1.844299999999999</v>
       </c>
     </row>
     <row r="35">
@@ -2064,7 +2064,7 @@
         <v>34.34</v>
       </c>
       <c r="C35" t="n">
-        <v>4.639400000000005</v>
+        <v>4.524400000000005</v>
       </c>
       <c r="D35" t="n">
         <v>1.41</v>
@@ -2082,7 +2082,7 @@
         <v>2.12</v>
       </c>
       <c r="I35" t="n">
-        <v>2.5713</v>
+        <v>2.088899999999999</v>
       </c>
       <c r="J35" t="n">
         <v>39.22</v>
@@ -2091,7 +2091,7 @@
         <v>10.29</v>
       </c>
       <c r="L35" t="n">
-        <v>6.770000000000005</v>
+        <v>6.4099</v>
       </c>
       <c r="M35" t="n">
         <v>0.35</v>
@@ -2100,7 +2100,7 @@
         <v>0.4</v>
       </c>
       <c r="O35" t="n">
-        <v>6.472400000000004</v>
+        <v>6.647599999999999</v>
       </c>
     </row>
     <row r="36">
@@ -2111,10 +2111,10 @@
         <v>36.93</v>
       </c>
       <c r="C36" t="n">
-        <v>4.524000000000004</v>
+        <v>4.887400000000007</v>
       </c>
       <c r="D36" t="n">
-        <v>1.206999999999998</v>
+        <v>2.708699999999999</v>
       </c>
       <c r="E36" t="n">
         <v>4.24</v>
@@ -2129,7 +2129,7 @@
         <v>2.74</v>
       </c>
       <c r="I36" t="n">
-        <v>2.588799999999999</v>
+        <v>2.902199999999997</v>
       </c>
       <c r="J36" t="n">
         <v>37.74</v>
@@ -2147,7 +2147,7 @@
         <v>0.44</v>
       </c>
       <c r="O36" t="n">
-        <v>7.495300000000002</v>
+        <v>5.1652</v>
       </c>
     </row>
     <row r="37">
@@ -2158,10 +2158,10 @@
         <v>65.91</v>
       </c>
       <c r="C37" t="n">
-        <v>3.016300000000002</v>
+        <v>3.063800000000002</v>
       </c>
       <c r="D37" t="n">
-        <v>1.204099999999999</v>
+        <v>2.389399999999998</v>
       </c>
       <c r="E37" t="n">
         <v>1.6</v>
@@ -2191,10 +2191,10 @@
         <v>0.3</v>
       </c>
       <c r="N37" t="n">
-        <v>0.6853999999999995</v>
+        <v>0.7496999999999997</v>
       </c>
       <c r="O37" t="n">
-        <v>1.871399999999999</v>
+        <v>1.939699999999999</v>
       </c>
     </row>
     <row r="38">
@@ -2205,7 +2205,7 @@
         <v>69.70999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>2.8611</v>
+        <v>2.766100000000001</v>
       </c>
       <c r="D38" t="n">
         <v>0.21</v>
@@ -2214,7 +2214,7 @@
         <v>0.46</v>
       </c>
       <c r="F38" t="n">
-        <v>1.768099999999999</v>
+        <v>1.8712</v>
       </c>
       <c r="G38" t="n">
         <v>2.36</v>
@@ -2235,13 +2235,13 @@
         <v>0.17</v>
       </c>
       <c r="M38" t="n">
-        <v>0.2784000000000002</v>
+        <v>0.2453000000000001</v>
       </c>
       <c r="N38" t="n">
-        <v>1.086600000000001</v>
+        <v>1.318500000000001</v>
       </c>
       <c r="O38" t="n">
-        <v>2.2375</v>
+        <v>2.530299999999999</v>
       </c>
     </row>
     <row r="39">
@@ -2252,7 +2252,7 @@
         <v>75.51000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>3.538700000000002</v>
+        <v>3.394400000000002</v>
       </c>
       <c r="D39" t="n">
         <v>0.15</v>
@@ -2267,7 +2267,7 @@
         <v>2.35</v>
       </c>
       <c r="H39" t="n">
-        <v>1.0003</v>
+        <v>1.0179</v>
       </c>
       <c r="I39" t="n">
         <v>0.47</v>
@@ -2282,13 +2282,13 @@
         <v>0.13</v>
       </c>
       <c r="M39" t="n">
-        <v>0.3360000000000004</v>
+        <v>0.3500000000000001</v>
       </c>
       <c r="N39" t="n">
-        <v>0.8676999999999998</v>
+        <v>0.8767999999999998</v>
       </c>
       <c r="O39" t="n">
-        <v>2.310199999999999</v>
+        <v>2.664899999999999</v>
       </c>
     </row>
     <row r="40">
@@ -2299,7 +2299,7 @@
         <v>35.78</v>
       </c>
       <c r="C40" t="n">
-        <v>2.5446</v>
+        <v>2.665300000000001</v>
       </c>
       <c r="D40" t="n">
         <v>0.25</v>
@@ -2308,7 +2308,7 @@
         <v>0.78</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7428</v>
+        <v>0.7695000000000003</v>
       </c>
       <c r="G40" t="n">
         <v>1.62</v>
@@ -2332,10 +2332,10 @@
         <v>0.22</v>
       </c>
       <c r="N40" t="n">
-        <v>0.6335999999999994</v>
+        <v>0.6847999999999995</v>
       </c>
       <c r="O40" t="n">
-        <v>7.793900000000002</v>
+        <v>7.2155</v>
       </c>
     </row>
     <row r="41">
@@ -2346,16 +2346,16 @@
         <v>65.91</v>
       </c>
       <c r="C41" t="n">
-        <v>2.687799999999999</v>
+        <v>2.7492</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2472000000000003</v>
+        <v>0.2311000000000002</v>
       </c>
       <c r="E41" t="n">
         <v>0.38</v>
       </c>
       <c r="F41" t="n">
-        <v>1.651499999999999</v>
+        <v>1.729899999999999</v>
       </c>
       <c r="G41" t="n">
         <v>1.44</v>
@@ -2376,13 +2376,13 @@
         <v>0.42</v>
       </c>
       <c r="M41" t="n">
-        <v>0.2812000000000002</v>
+        <v>0.2436</v>
       </c>
       <c r="N41" t="n">
-        <v>0.9819000000000007</v>
+        <v>1.184300000000001</v>
       </c>
       <c r="O41" t="n">
-        <v>3.5151</v>
+        <v>4.883200000000001</v>
       </c>
     </row>
     <row r="42">
@@ -2402,7 +2402,7 @@
         <v>0.37</v>
       </c>
       <c r="F42" t="n">
-        <v>0.6527999999999997</v>
+        <v>0.6789999999999999</v>
       </c>
       <c r="G42" t="n">
         <v>1.6</v>
@@ -2426,10 +2426,10 @@
         <v>0.22</v>
       </c>
       <c r="N42" t="n">
-        <v>0.6358999999999995</v>
+        <v>0.6953999999999995</v>
       </c>
       <c r="O42" t="n">
-        <v>7.793900000000002</v>
+        <v>7.2155</v>
       </c>
     </row>
     <row r="43">
@@ -2440,7 +2440,7 @@
         <v>60.12</v>
       </c>
       <c r="C43" t="n">
-        <v>5.095200000000005</v>
+        <v>4.629700000000005</v>
       </c>
       <c r="D43" t="n">
         <v>0.23</v>
@@ -2449,13 +2449,13 @@
         <v>0.89</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.7923</v>
       </c>
       <c r="G43" t="n">
         <v>2.72</v>
       </c>
       <c r="H43" t="n">
-        <v>1.1748</v>
+        <v>0.9157</v>
       </c>
       <c r="I43" t="n">
         <v>3.01</v>
@@ -2473,7 +2473,7 @@
         <v>0.31</v>
       </c>
       <c r="N43" t="n">
-        <v>0.5626999999999992</v>
+        <v>0.6843999999999996</v>
       </c>
       <c r="O43" t="n">
         <v>3.66</v>
@@ -2490,13 +2490,13 @@
         <v>1.38</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2868999999999999</v>
+        <v>0.2876</v>
       </c>
       <c r="E44" t="n">
         <v>0.68</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7801999999999998</v>
+        <v>0.7752999999999994</v>
       </c>
       <c r="G44" t="n">
         <v>2.57</v>
@@ -2520,10 +2520,10 @@
         <v>0.41</v>
       </c>
       <c r="N44" t="n">
-        <v>0.7208999999999999</v>
+        <v>0.8634000000000001</v>
       </c>
       <c r="O44" t="n">
-        <v>7.814500000000002</v>
+        <v>6.976000000000002</v>
       </c>
     </row>
     <row r="45">
@@ -2534,22 +2534,22 @@
         <v>26.25</v>
       </c>
       <c r="C45" t="n">
-        <v>2.357599999999999</v>
+        <v>2.146599999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3068</v>
+        <v>0.3425</v>
       </c>
       <c r="E45" t="n">
         <v>1.11</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9031999999999999</v>
+        <v>0.9746000000000004</v>
       </c>
       <c r="G45" t="n">
         <v>0.5</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5040999999999997</v>
+        <v>0.4557999999999993</v>
       </c>
       <c r="I45" t="n">
         <v>0.88</v>
@@ -2567,10 +2567,10 @@
         <v>0.61</v>
       </c>
       <c r="N45" t="n">
-        <v>0.6735999999999998</v>
+        <v>0.7515999999999994</v>
       </c>
       <c r="O45" t="n">
-        <v>8.199400000000004</v>
+        <v>9.2362</v>
       </c>
     </row>
     <row r="46">
@@ -2581,16 +2581,16 @@
         <v>16.71</v>
       </c>
       <c r="C46" t="n">
-        <v>3.892400000000004</v>
+        <v>3.839400000000004</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3732000000000002</v>
+        <v>0.4006999999999998</v>
       </c>
       <c r="E46" t="n">
         <v>1.87</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7903000000000001</v>
+        <v>0.7840999999999997</v>
       </c>
       <c r="G46" t="n">
         <v>0.45</v>
@@ -2599,7 +2599,7 @@
         <v>0.19</v>
       </c>
       <c r="I46" t="n">
-        <v>4.601799999999995</v>
+        <v>4.677999999999996</v>
       </c>
       <c r="J46" t="n">
         <v>70.20999999999999</v>
@@ -2614,10 +2614,10 @@
         <v>0.68</v>
       </c>
       <c r="N46" t="n">
-        <v>0.5726999999999992</v>
+        <v>0.6958999999999996</v>
       </c>
       <c r="O46" t="n">
-        <v>8.502700000000006</v>
+        <v>9.5183</v>
       </c>
     </row>
     <row r="47">
@@ -2628,7 +2628,7 @@
         <v>18.46</v>
       </c>
       <c r="C47" t="n">
-        <v>3.266900000000004</v>
+        <v>3.368100000000003</v>
       </c>
       <c r="D47" t="n">
         <v>0.44</v>
@@ -2661,10 +2661,10 @@
         <v>0.47</v>
       </c>
       <c r="N47" t="n">
-        <v>0.9579000000000001</v>
+        <v>1.0342</v>
       </c>
       <c r="O47" t="n">
-        <v>7.504400000000003</v>
+        <v>7.742999999999999</v>
       </c>
     </row>
     <row r="48">
@@ -2690,7 +2690,7 @@
         <v>3.53</v>
       </c>
       <c r="H48" t="n">
-        <v>1.3046</v>
+        <v>1.544</v>
       </c>
       <c r="I48" t="n">
         <v>2.67</v>
@@ -2708,10 +2708,10 @@
         <v>0.35</v>
       </c>
       <c r="N48" t="n">
-        <v>0.4953999999999993</v>
+        <v>0.6565999999999994</v>
       </c>
       <c r="O48" t="n">
-        <v>2.7103</v>
+        <v>2.688799999999999</v>
       </c>
     </row>
     <row r="49">
@@ -2728,7 +2728,7 @@
         <v>0.35</v>
       </c>
       <c r="E49" t="n">
-        <v>3.4883</v>
+        <v>3.327700000000003</v>
       </c>
       <c r="F49" t="n">
         <v>1.16</v>
@@ -2737,7 +2737,7 @@
         <v>5.66</v>
       </c>
       <c r="H49" t="n">
-        <v>1.7982</v>
+        <v>1.896500000000001</v>
       </c>
       <c r="I49" t="n">
         <v>2.72</v>
@@ -2749,16 +2749,16 @@
         <v>10.88</v>
       </c>
       <c r="L49" t="n">
-        <v>2.978999999999999</v>
+        <v>2.185599999999999</v>
       </c>
       <c r="M49" t="n">
-        <v>0.3333999999999999</v>
+        <v>0.3565</v>
       </c>
       <c r="N49" t="n">
-        <v>0.5106999999999993</v>
+        <v>0.4997999999999994</v>
       </c>
       <c r="O49" t="n">
-        <v>2.471600000000001</v>
+        <v>2.4513</v>
       </c>
     </row>
     <row r="50">
@@ -2769,10 +2769,10 @@
         <v>12.41</v>
       </c>
       <c r="C50" t="n">
-        <v>3.884000000000006</v>
+        <v>3.673300000000004</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6036999999999998</v>
+        <v>1.273399999999999</v>
       </c>
       <c r="E50" t="n">
         <v>5.24</v>
@@ -2796,16 +2796,16 @@
         <v>7.29</v>
       </c>
       <c r="L50" t="n">
-        <v>9.575900000000001</v>
+        <v>10.3103</v>
       </c>
       <c r="M50" t="n">
         <v>0.64</v>
       </c>
       <c r="N50" t="n">
-        <v>0.5188999999999995</v>
+        <v>0.6149999999999993</v>
       </c>
       <c r="O50" t="n">
-        <v>9.992000000000006</v>
+        <v>9.018400000000003</v>
       </c>
     </row>
     <row r="51">
@@ -2816,10 +2816,10 @@
         <v>21.7</v>
       </c>
       <c r="C51" t="n">
-        <v>2.658800000000001</v>
+        <v>2.4111</v>
       </c>
       <c r="D51" t="n">
-        <v>1.6854</v>
+        <v>2.857599999999999</v>
       </c>
       <c r="E51" t="n">
         <v>6.4</v>
@@ -2849,10 +2849,10 @@
         <v>0.47</v>
       </c>
       <c r="N51" t="n">
-        <v>0.5122999999999994</v>
+        <v>0.5844999999999992</v>
       </c>
       <c r="O51" t="n">
-        <v>7.593600000000002</v>
+        <v>7.705099999999998</v>
       </c>
     </row>
     <row r="52">
@@ -2872,7 +2872,7 @@
         <v>2.14</v>
       </c>
       <c r="F52" t="n">
-        <v>1.359</v>
+        <v>1.2855</v>
       </c>
       <c r="G52" t="n">
         <v>12.69</v>
@@ -2890,16 +2890,16 @@
         <v>5.22</v>
       </c>
       <c r="L52" t="n">
-        <v>1.930699999999999</v>
+        <v>2.190499999999998</v>
       </c>
       <c r="M52" t="n">
         <v>0.26</v>
       </c>
       <c r="N52" t="n">
-        <v>0.8112000000000004</v>
+        <v>0.7973000000000002</v>
       </c>
       <c r="O52" t="n">
-        <v>3.3001</v>
+        <v>2.591800000000001</v>
       </c>
     </row>
     <row r="53">
@@ -2925,7 +2925,7 @@
         <v>5</v>
       </c>
       <c r="H53" t="n">
-        <v>0.8542999999999996</v>
+        <v>1.0333</v>
       </c>
       <c r="I53" t="n">
         <v>0.53</v>
@@ -2937,16 +2937,16 @@
         <v>10.96</v>
       </c>
       <c r="L53" t="n">
-        <v>0.3334000000000001</v>
+        <v>0.3558000000000004</v>
       </c>
       <c r="M53" t="n">
         <v>0.23</v>
       </c>
       <c r="N53" t="n">
-        <v>0.5397999999999994</v>
+        <v>0.6421999999999995</v>
       </c>
       <c r="O53" t="n">
-        <v>4.254799999999999</v>
+        <v>2.543399999999999</v>
       </c>
     </row>
     <row r="54">
@@ -2957,13 +2957,13 @@
         <v>55.21</v>
       </c>
       <c r="C54" t="n">
-        <v>2.7467</v>
+        <v>2.853200000000002</v>
       </c>
       <c r="D54" t="n">
         <v>0.25</v>
       </c>
       <c r="E54" t="n">
-        <v>2.028900000000001</v>
+        <v>2.0652</v>
       </c>
       <c r="F54" t="n">
         <v>1.67</v>
@@ -2972,7 +2972,7 @@
         <v>4.79</v>
       </c>
       <c r="H54" t="n">
-        <v>1.0155</v>
+        <v>1.218399999999999</v>
       </c>
       <c r="I54" t="n">
         <v>0.77</v>
@@ -2990,10 +2990,10 @@
         <v>0.43</v>
       </c>
       <c r="N54" t="n">
-        <v>0.8256000000000006</v>
+        <v>0.9329000000000004</v>
       </c>
       <c r="O54" t="n">
-        <v>2.5629</v>
+        <v>2.846100000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3019,7 +3019,7 @@
         <v>3.06</v>
       </c>
       <c r="H55" t="n">
-        <v>1.5842</v>
+        <v>2.202500000000001</v>
       </c>
       <c r="I55" t="n">
         <v>0.65</v>
@@ -3037,10 +3037,10 @@
         <v>0.85</v>
       </c>
       <c r="N55" t="n">
-        <v>0.5946999999999991</v>
+        <v>0.6833999999999995</v>
       </c>
       <c r="O55" t="n">
-        <v>6.875299999999998</v>
+        <v>3.9965</v>
       </c>
     </row>
     <row r="56">
@@ -3069,7 +3069,7 @@
         <v>1.03</v>
       </c>
       <c r="I56" t="n">
-        <v>1.502200000000002</v>
+        <v>1.459200000000002</v>
       </c>
       <c r="J56" t="n">
         <v>15.71</v>
@@ -3087,7 +3087,7 @@
         <v>1.31</v>
       </c>
       <c r="O56" t="n">
-        <v>1.896199999999999</v>
+        <v>2.088899999999999</v>
       </c>
     </row>
     <row r="57">
@@ -3098,10 +3098,10 @@
         <v>28.79</v>
       </c>
       <c r="C57" t="n">
-        <v>2.604900000000001</v>
+        <v>2.572400000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>1.298199999999998</v>
+        <v>2.824899999999999</v>
       </c>
       <c r="E57" t="n">
         <v>4.58</v>
@@ -3131,10 +3131,10 @@
         <v>0.46</v>
       </c>
       <c r="N57" t="n">
-        <v>0.8756999999999997</v>
+        <v>0.9207</v>
       </c>
       <c r="O57" t="n">
-        <v>7.214800000000004</v>
+        <v>7.590599999999998</v>
       </c>
     </row>
     <row r="58">
@@ -3145,7 +3145,7 @@
         <v>54.61</v>
       </c>
       <c r="C58" t="n">
-        <v>2.998300000000002</v>
+        <v>2.5005</v>
       </c>
       <c r="D58" t="n">
         <v>0.3</v>
@@ -3178,10 +3178,10 @@
         <v>0.3</v>
       </c>
       <c r="N58" t="n">
-        <v>0.4838999999999994</v>
+        <v>0.6159999999999992</v>
       </c>
       <c r="O58" t="n">
-        <v>2.7161</v>
+        <v>2.2674</v>
       </c>
     </row>
     <row r="59">
@@ -3192,10 +3192,10 @@
         <v>17.98</v>
       </c>
       <c r="C59" t="n">
-        <v>3.356200000000002</v>
+        <v>3.644100000000005</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3885000000000002</v>
+        <v>0.371</v>
       </c>
       <c r="E59" t="n">
         <v>3.19</v>
@@ -3225,10 +3225,10 @@
         <v>0.66</v>
       </c>
       <c r="N59" t="n">
-        <v>0.5934999999999993</v>
+        <v>0.7209999999999996</v>
       </c>
       <c r="O59" t="n">
-        <v>12.2144</v>
+        <v>11.1477</v>
       </c>
     </row>
     <row r="60">
@@ -3239,10 +3239,10 @@
         <v>45.02</v>
       </c>
       <c r="C60" t="n">
-        <v>2.3426</v>
+        <v>1.8925</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3381000000000002</v>
+        <v>0.3297000000000001</v>
       </c>
       <c r="E60" t="n">
         <v>3.12</v>
@@ -3254,7 +3254,7 @@
         <v>4.16</v>
       </c>
       <c r="H60" t="n">
-        <v>1.377</v>
+        <v>1.2877</v>
       </c>
       <c r="I60" t="n">
         <v>0.7</v>
@@ -3272,10 +3272,10 @@
         <v>0.23</v>
       </c>
       <c r="N60" t="n">
-        <v>0.5455999999999994</v>
+        <v>0.5004999999999992</v>
       </c>
       <c r="O60" t="n">
-        <v>8.257999999999999</v>
+        <v>5.841099999999996</v>
       </c>
     </row>
     <row r="61">
@@ -3286,10 +3286,10 @@
         <v>24.61</v>
       </c>
       <c r="C61" t="n">
-        <v>2.6889</v>
+        <v>2.1622</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3199000000000002</v>
+        <v>0.3455000000000003</v>
       </c>
       <c r="E61" t="n">
         <v>3.58</v>
@@ -3322,7 +3322,7 @@
         <v>0.47</v>
       </c>
       <c r="O61" t="n">
-        <v>6.643300000000002</v>
+        <v>7.268899999999999</v>
       </c>
     </row>
     <row r="62">
@@ -3333,10 +3333,10 @@
         <v>21.35</v>
       </c>
       <c r="C62" t="n">
-        <v>2.053799999999999</v>
+        <v>2.0733</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4832000000000001</v>
+        <v>0.7417999999999997</v>
       </c>
       <c r="E62" t="n">
         <v>5.13</v>
@@ -3357,19 +3357,19 @@
         <v>51.34</v>
       </c>
       <c r="K62" t="n">
-        <v>9.262199999999993</v>
+        <v>9.296999999999992</v>
       </c>
       <c r="L62" t="n">
         <v>8.75</v>
       </c>
       <c r="M62" t="n">
-        <v>0.4960999999999994</v>
+        <v>0.5243999999999999</v>
       </c>
       <c r="N62" t="n">
-        <v>0.9139</v>
+        <v>1.0448</v>
       </c>
       <c r="O62" t="n">
-        <v>9.410100000000003</v>
+        <v>10.5969</v>
       </c>
     </row>
     <row r="63">
@@ -3383,7 +3383,7 @@
         <v>1.22</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3848000000000001</v>
+        <v>0.371</v>
       </c>
       <c r="E63" t="n">
         <v>2.27</v>
@@ -3413,10 +3413,10 @@
         <v>0.44</v>
       </c>
       <c r="N63" t="n">
-        <v>0.7079999999999999</v>
+        <v>0.8793</v>
       </c>
       <c r="O63" t="n">
-        <v>10.219</v>
+        <v>10.5896</v>
       </c>
     </row>
     <row r="64">
@@ -3442,7 +3442,7 @@
         <v>6.06</v>
       </c>
       <c r="H64" t="n">
-        <v>0.7802999999999999</v>
+        <v>0.9082000000000003</v>
       </c>
       <c r="I64" t="n">
         <v>0.54</v>
@@ -3454,16 +3454,16 @@
         <v>8.99</v>
       </c>
       <c r="L64" t="n">
-        <v>0.4277</v>
+        <v>0.4952000000000003</v>
       </c>
       <c r="M64" t="n">
         <v>0.27</v>
       </c>
       <c r="N64" t="n">
-        <v>0.5824999999999992</v>
+        <v>0.6819999999999999</v>
       </c>
       <c r="O64" t="n">
-        <v>3.2837</v>
+        <v>2.356299999999999</v>
       </c>
     </row>
     <row r="65">
@@ -3474,7 +3474,7 @@
         <v>22.28</v>
       </c>
       <c r="C65" t="n">
-        <v>2.6381</v>
+        <v>2.4501</v>
       </c>
       <c r="D65" t="n">
         <v>0.32</v>
@@ -3489,7 +3489,7 @@
         <v>4.15</v>
       </c>
       <c r="H65" t="n">
-        <v>1.3109</v>
+        <v>1.448</v>
       </c>
       <c r="I65" t="n">
         <v>0.83</v>
@@ -3507,10 +3507,10 @@
         <v>0.88</v>
       </c>
       <c r="N65" t="n">
-        <v>0.7356999999999995</v>
+        <v>0.6580999999999994</v>
       </c>
       <c r="O65" t="n">
-        <v>7.079200000000002</v>
+        <v>6.3452</v>
       </c>
     </row>
     <row r="66">
@@ -3521,13 +3521,13 @@
         <v>17.11</v>
       </c>
       <c r="C66" t="n">
-        <v>2.926300000000002</v>
+        <v>2.65</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5129999999999999</v>
+        <v>0.8157999999999993</v>
       </c>
       <c r="E66" t="n">
-        <v>4.850799999999996</v>
+        <v>4.629999999999996</v>
       </c>
       <c r="F66" t="n">
         <v>1.11</v>
@@ -3536,7 +3536,7 @@
         <v>3.65</v>
       </c>
       <c r="H66" t="n">
-        <v>1.5767</v>
+        <v>1.6752</v>
       </c>
       <c r="I66" t="n">
         <v>1.34</v>
@@ -3545,7 +3545,7 @@
         <v>58.46</v>
       </c>
       <c r="K66" t="n">
-        <v>7.207600000000001</v>
+        <v>6.9221</v>
       </c>
       <c r="L66" t="n">
         <v>14.13</v>
@@ -3554,10 +3554,10 @@
         <v>1.12</v>
       </c>
       <c r="N66" t="n">
-        <v>0.4653999999999994</v>
+        <v>0.5126999999999992</v>
       </c>
       <c r="O66" t="n">
-        <v>8.674800000000003</v>
+        <v>8.367699999999997</v>
       </c>
     </row>
     <row r="67">
@@ -3571,19 +3571,19 @@
         <v>2.71</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2689000000000001</v>
+        <v>0.2820000000000001</v>
       </c>
       <c r="E67" t="n">
         <v>1.13</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7199999999999998</v>
+        <v>0.6655999999999999</v>
       </c>
       <c r="G67" t="n">
         <v>1.45</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4575999999999998</v>
+        <v>0.368</v>
       </c>
       <c r="I67" t="n">
         <v>0.86</v>
@@ -3598,13 +3598,13 @@
         <v>0.35</v>
       </c>
       <c r="M67" t="n">
-        <v>0.2816999999999999</v>
+        <v>0.2860999999999999</v>
       </c>
       <c r="N67" t="n">
-        <v>0.5858999999999994</v>
+        <v>0.7340999999999994</v>
       </c>
       <c r="O67" t="n">
-        <v>7.670600000000003</v>
+        <v>7.125500000000001</v>
       </c>
     </row>
     <row r="68">
@@ -3615,22 +3615,22 @@
         <v>29.15</v>
       </c>
       <c r="C68" t="n">
-        <v>3.624900000000001</v>
+        <v>3.801400000000003</v>
       </c>
       <c r="D68" t="n">
-        <v>0.2703000000000001</v>
+        <v>0.2776000000000002</v>
       </c>
       <c r="E68" t="n">
         <v>1.21</v>
       </c>
       <c r="F68" t="n">
-        <v>0.7645999999999998</v>
+        <v>0.8111999999999998</v>
       </c>
       <c r="G68" t="n">
         <v>1.85</v>
       </c>
       <c r="H68" t="n">
-        <v>0.5794999999999995</v>
+        <v>0.5393999999999997</v>
       </c>
       <c r="I68" t="n">
         <v>0.79</v>
@@ -3645,13 +3645,13 @@
         <v>2.54</v>
       </c>
       <c r="M68" t="n">
-        <v>0.4463999999999997</v>
+        <v>0.4360999999999999</v>
       </c>
       <c r="N68" t="n">
-        <v>0.6237999999999991</v>
+        <v>0.7517999999999994</v>
       </c>
       <c r="O68" t="n">
-        <v>8.152800000000004</v>
+        <v>7.863100000000004</v>
       </c>
     </row>
     <row r="69">
@@ -3662,22 +3662,22 @@
         <v>25.42</v>
       </c>
       <c r="C69" t="n">
-        <v>3.647400000000001</v>
+        <v>3.750200000000004</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2743000000000001</v>
+        <v>0.2976000000000001</v>
       </c>
       <c r="E69" t="n">
         <v>1.31</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7757000000000002</v>
+        <v>0.7894999999999999</v>
       </c>
       <c r="G69" t="n">
         <v>2.18</v>
       </c>
       <c r="H69" t="n">
-        <v>0.7057999999999994</v>
+        <v>0.6581999999999993</v>
       </c>
       <c r="I69" t="n">
         <v>1.16</v>
@@ -3689,16 +3689,16 @@
         <v>17.3</v>
       </c>
       <c r="L69" t="n">
-        <v>2.900800000000001</v>
+        <v>3.319400000000001</v>
       </c>
       <c r="M69" t="n">
-        <v>0.4784999999999999</v>
+        <v>0.4637999999999996</v>
       </c>
       <c r="N69" t="n">
-        <v>0.6001999999999993</v>
+        <v>0.7265999999999996</v>
       </c>
       <c r="O69" t="n">
-        <v>9.084100000000003</v>
+        <v>8.139100000000001</v>
       </c>
     </row>
     <row r="70">
@@ -3709,7 +3709,7 @@
         <v>30.39</v>
       </c>
       <c r="C70" t="n">
-        <v>3.585300000000002</v>
+        <v>3.421000000000003</v>
       </c>
       <c r="D70" t="n">
         <v>0.34</v>
@@ -3742,10 +3742,10 @@
         <v>0.24</v>
       </c>
       <c r="N70" t="n">
-        <v>0.4662999999999994</v>
+        <v>0.5165999999999993</v>
       </c>
       <c r="O70" t="n">
-        <v>6.951400000000003</v>
+        <v>7.303099999999998</v>
       </c>
     </row>
   </sheetData>
